--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485961B0-D06D-40F6-B4A4-6D87B840C71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E91C76B-A89C-4AE7-A513-D29037EA7237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>fecha</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>12/4/2024</t>
+  </si>
+  <si>
+    <t>27/4/2024</t>
+  </si>
+  <si>
+    <t>28/4/2024</t>
   </si>
 </sst>
 </file>
@@ -566,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,6 +1268,28 @@
         <v>205049</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2">
+        <v>297589</v>
+      </c>
+      <c r="C62" s="2">
+        <v>201335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2">
+        <v>294812</v>
+      </c>
+      <c r="C63" s="2">
+        <v>195805</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E91C76B-A89C-4AE7-A513-D29037EA7237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C3D91-85AA-41F7-B9B2-7DFD586D8EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>fecha</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>28/4/2024</t>
+  </si>
+  <si>
+    <t>29/4/2024</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,6 +1293,28 @@
         <v>195805</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2">
+        <v>290873</v>
+      </c>
+      <c r="C64" s="2">
+        <v>194264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="2">
+        <v>295782</v>
+      </c>
+      <c r="C65" s="2">
+        <v>210472</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C3D91-85AA-41F7-B9B2-7DFD586D8EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EDCBCC-8628-489C-90ED-7266A233AACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>fecha</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>29/4/2024</t>
+  </si>
+  <si>
+    <t>1/5/2024</t>
+  </si>
+  <si>
+    <t>30/4/2024</t>
   </si>
 </sst>
 </file>
@@ -575,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,13 +1312,24 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>295782</v>
+        <v>285952</v>
       </c>
       <c r="C65" s="2">
-        <v>210472</v>
+        <v>196871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2">
+        <v>282768</v>
+      </c>
+      <c r="C66" s="2">
+        <v>197622</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EDCBCC-8628-489C-90ED-7266A233AACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF9E21-30C5-4B0A-8ADC-FB55AA42D1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>fecha</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>30/4/2024</t>
+  </si>
+  <si>
+    <t>2/5/2024</t>
+  </si>
+  <si>
+    <t>3/5/2024</t>
+  </si>
+  <si>
+    <t>4/5/2024</t>
   </si>
 </sst>
 </file>
@@ -283,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -301,6 +310,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1146,7 @@
         <v>210659</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>205831</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>205663</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>197189</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>29</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>203922</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>30</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>211861</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>31</v>
       </c>
@@ -1199,8 +1211,9 @@
       <c r="C54" s="2">
         <v>207952</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>32</v>
       </c>
@@ -1210,8 +1223,9 @@
       <c r="C55" s="2">
         <v>209166</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>33</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>211630</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>209556</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>35</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v>210779</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1269,7 @@
         <v>211714</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>37</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v>205941</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>38</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>205049</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1302,7 @@
         <v>201335</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -1299,7 +1313,7 @@
         <v>195805</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -1330,6 +1344,39 @@
       </c>
       <c r="C66" s="2">
         <v>197622</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2">
+        <v>277379</v>
+      </c>
+      <c r="C67" s="2">
+        <v>200534</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2">
+        <v>273819</v>
+      </c>
+      <c r="C68" s="2">
+        <v>205744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
+        <v>273371</v>
+      </c>
+      <c r="C69" s="2">
+        <v>210773</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF9E21-30C5-4B0A-8ADC-FB55AA42D1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E3E976-1999-4EC2-BF7F-4FD1332DDCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>fecha</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>4/5/2024</t>
+  </si>
+  <si>
+    <t>preciocasamensual</t>
+  </si>
+  <si>
+    <t>precioapartamentomensual</t>
   </si>
 </sst>
 </file>
@@ -595,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,6 +610,8 @@
     <col min="1" max="1" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -616,6 +624,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -970,7 +984,7 @@
         <v>234130</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
@@ -981,7 +995,7 @@
         <v>225645</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1006,7 @@
         <v>212784</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>24</v>
       </c>
@@ -1003,7 +1017,7 @@
         <v>210472</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1028,7 @@
         <v>217211</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>51</v>
       </c>
@@ -1024,8 +1038,14 @@
       <c r="C37" s="2">
         <v>212331</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="2">
+        <v>298935</v>
+      </c>
+      <c r="E37" s="2">
+        <v>231285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>52</v>
       </c>
@@ -1036,7 +1056,7 @@
         <v>211506</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
@@ -1047,7 +1067,7 @@
         <v>212188</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
@@ -1058,7 +1078,7 @@
         <v>213869</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>55</v>
       </c>
@@ -1069,7 +1089,7 @@
         <v>215005</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
@@ -1080,7 +1100,7 @@
         <v>216909</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
@@ -1091,7 +1111,7 @@
         <v>210766</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>58</v>
       </c>
@@ -1102,7 +1122,7 @@
         <v>221497</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>59</v>
       </c>
@@ -1113,7 +1133,7 @@
         <v>208198</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>60</v>
       </c>
@@ -1124,7 +1144,7 @@
         <v>215042</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -1135,7 +1155,7 @@
         <v>213350</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -1324,7 +1344,7 @@
         <v>194264</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
@@ -1335,7 +1355,7 @@
         <v>196871</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -1345,8 +1365,14 @@
       <c r="C66" s="2">
         <v>197622</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="2">
+        <v>287383</v>
+      </c>
+      <c r="E66" s="2">
+        <v>208325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -1357,7 +1383,7 @@
         <v>200534</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
@@ -1368,7 +1394,7 @@
         <v>205744</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>70</v>
       </c>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E3E976-1999-4EC2-BF7F-4FD1332DDCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761ACB30-86E6-45D4-9178-E99ACC9EA20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>fecha</t>
   </si>
@@ -244,6 +244,27 @@
   </si>
   <si>
     <t>precioapartamentomensual</t>
+  </si>
+  <si>
+    <t>5/52024</t>
+  </si>
+  <si>
+    <t>6/5/2024</t>
+  </si>
+  <si>
+    <t>7/5/2024</t>
+  </si>
+  <si>
+    <t>8/5/2024</t>
+  </si>
+  <si>
+    <t>9/5/2024</t>
+  </si>
+  <si>
+    <t>26/4/2024</t>
+  </si>
+  <si>
+    <t>10/5/2024</t>
   </si>
 </sst>
 </file>
@@ -599,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,97 +1333,176 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>63</v>
+      <c r="A62" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B62" s="2">
-        <v>297589</v>
+        <v>296955</v>
       </c>
       <c r="C62" s="2">
-        <v>201335</v>
+        <v>203915</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>294812</v>
+        <v>297589</v>
       </c>
       <c r="C63" s="2">
-        <v>195805</v>
+        <v>201335</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2">
+        <v>294812</v>
+      </c>
+      <c r="C64" s="2">
+        <v>195805</v>
+      </c>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B65" s="2">
         <v>290873</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C65" s="2">
         <v>194264</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B66" s="2">
         <v>285952</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="2">
         <v>196871</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B67" s="2">
         <v>282768</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="2">
         <v>197622</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D67" s="2">
         <v>287383</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E67" s="2">
         <v>208325</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B68" s="2">
         <v>277379</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="2">
         <v>200534</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B69" s="2">
         <v>273819</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="2">
         <v>205744</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B70" s="2">
         <v>273371</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C70" s="2">
         <v>210773</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="2">
+        <v>271891</v>
+      </c>
+      <c r="C71" s="2">
+        <v>215745</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2">
+        <v>276455</v>
+      </c>
+      <c r="C72" s="2">
+        <v>215925</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="2">
+        <v>269692</v>
+      </c>
+      <c r="C73" s="2">
+        <v>213855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="2">
+        <v>275778</v>
+      </c>
+      <c r="C74" s="2">
+        <v>209558</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="2">
+        <v>285859</v>
+      </c>
+      <c r="C75" s="2">
+        <v>209261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="2">
+        <v>297189</v>
+      </c>
+      <c r="C76" s="2">
+        <v>210616</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761ACB30-86E6-45D4-9178-E99ACC9EA20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08188B98-D733-4C0A-A8F5-2924ED8727BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>fecha</t>
   </si>
@@ -265,6 +265,33 @@
   </si>
   <si>
     <t>10/5/2024</t>
+  </si>
+  <si>
+    <t>11/5/2024</t>
+  </si>
+  <si>
+    <t>12/5/2024</t>
+  </si>
+  <si>
+    <t>13/5/2024</t>
+  </si>
+  <si>
+    <t>14/5/2024</t>
+  </si>
+  <si>
+    <t>15/5/2024</t>
+  </si>
+  <si>
+    <t>16/5/2024</t>
+  </si>
+  <si>
+    <t>17/5/2024</t>
+  </si>
+  <si>
+    <t>18/5/2024</t>
+  </si>
+  <si>
+    <t>19/5/2024</t>
   </si>
 </sst>
 </file>
@@ -620,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,6 +1498,7 @@
       <c r="C73" s="2">
         <v>213855</v>
       </c>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
@@ -1482,6 +1510,7 @@
       <c r="C74" s="2">
         <v>209558</v>
       </c>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
@@ -1493,6 +1522,7 @@
       <c r="C75" s="2">
         <v>209261</v>
       </c>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
@@ -1503,6 +1533,108 @@
       </c>
       <c r="C76" s="2">
         <v>210616</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="2">
+        <v>289368</v>
+      </c>
+      <c r="C77" s="2">
+        <v>208291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="2">
+        <v>283911</v>
+      </c>
+      <c r="C78" s="2">
+        <v>206961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="2">
+        <v>276869</v>
+      </c>
+      <c r="C79" s="2">
+        <v>205654</v>
+      </c>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="2">
+        <v>281625</v>
+      </c>
+      <c r="C80" s="2">
+        <v>211063</v>
+      </c>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="2">
+        <v>281298</v>
+      </c>
+      <c r="C81" s="2">
+        <v>214430</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="2">
+        <v>278218</v>
+      </c>
+      <c r="C82" s="2">
+        <v>213445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="2">
+        <v>285718</v>
+      </c>
+      <c r="C83" s="2">
+        <v>209467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="2">
+        <v>277778</v>
+      </c>
+      <c r="C84" s="2">
+        <v>208595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="2">
+        <v>276066</v>
+      </c>
+      <c r="C85" s="2">
+        <v>207717</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -65,7 +65,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -74,7 +74,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -436,1171 +435,1171 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="14.6640625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="12.88671875" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="20.88671875" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="22" customWidth="1" style="4" min="4" max="4"/>
-    <col width="29.109375" customWidth="1" style="4" min="5" max="5"/>
+    <col width="12.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="20.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="29.109375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>fecha</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>preciocasa</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>precioapartamento</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>preciocasamensual</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>precioapartamentomensual</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>26/2/2024</t>
         </is>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="9" t="n">
         <v>289419</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="9" t="n">
         <v>224074</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>27/2/2024</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="9" t="n">
         <v>286777</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="9" t="n">
         <v>222417</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>28/2/2024</t>
         </is>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <v>289366</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="9" t="n">
         <v>228142</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>29/2/2024</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9" t="n">
         <v>294838</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="9" t="n">
         <v>233277</v>
       </c>
       <c r="J5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>1/3/2024</t>
         </is>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="9" t="n">
         <v>304689</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="9" t="n">
         <v>242201</v>
       </c>
       <c r="J6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>2/3/2024</t>
         </is>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="9" t="n">
         <v>297353</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="9" t="n">
         <v>234090</v>
       </c>
       <c r="J7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>3/3/2024</t>
         </is>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="9" t="n">
         <v>299528</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="9" t="n">
         <v>234567</v>
       </c>
       <c r="J8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>4/3/2024</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <v>297147</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="9" t="n">
         <v>232072</v>
       </c>
       <c r="J9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>5/3/2024</t>
         </is>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="9" t="n">
         <v>298512</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="9" t="n">
         <v>218926</v>
       </c>
       <c r="J10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>6/3/2024</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="9" t="n">
         <v>299478</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="9" t="n">
         <v>230983</v>
       </c>
       <c r="J11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>7/3/2024</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="9" t="n">
         <v>285891</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="9" t="n">
         <v>211269</v>
       </c>
       <c r="J12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>8/3/2024</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="9" t="n">
         <v>286112</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="9" t="n">
         <v>206535</v>
       </c>
       <c r="J13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>9/3/2024</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="9" t="n">
         <v>289999</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="9" t="n">
         <v>207414</v>
       </c>
       <c r="J14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>10/3/2024</t>
         </is>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="9" t="n">
         <v>294244</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="9" t="n">
         <v>210714</v>
       </c>
       <c r="J15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>11/3/2024</t>
         </is>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="9" t="n">
         <v>290654</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="9" t="n">
         <v>208866</v>
       </c>
       <c r="J16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>12/3/2024</t>
         </is>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="9" t="n">
         <v>293155</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="9" t="n">
         <v>208920</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>13/3/2024</t>
         </is>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="9" t="n">
         <v>303344</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="9" t="n">
         <v>238064</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>14/3/2024</t>
         </is>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="9" t="n">
         <v>298742</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="9" t="n">
         <v>250940</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>15/3/2024</t>
         </is>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="9" t="n">
         <v>317125</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="9" t="n">
         <v>247903</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>16/3/2024</t>
         </is>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="9" t="n">
         <v>317243</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="9" t="n">
         <v>253202</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>17/3/2024</t>
         </is>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="9" t="n">
         <v>319810</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="9" t="n">
         <v>256049</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>18/3/2024</t>
         </is>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="9" t="n">
         <v>281492</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="9" t="n">
         <v>241523</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>19/3/2024</t>
         </is>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="9" t="n">
         <v>283134</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="9" t="n">
         <v>241749</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>20/3/2024</t>
         </is>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="9" t="n">
         <v>284410</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="9" t="n">
         <v>238660</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>21/3/2024</t>
         </is>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="9" t="n">
         <v>288546</v>
       </c>
-      <c r="C26" s="10" t="n">
+      <c r="C26" s="9" t="n">
         <v>235541</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>22/3/2024</t>
         </is>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B27" s="9" t="n">
         <v>314189</v>
       </c>
-      <c r="C27" s="10" t="n">
+      <c r="C27" s="9" t="n">
         <v>252996</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>23/3/2024</t>
         </is>
       </c>
-      <c r="B28" s="10" t="n">
+      <c r="B28" s="9" t="n">
         <v>319177</v>
       </c>
-      <c r="C28" s="10" t="n">
+      <c r="C28" s="9" t="n">
         <v>244926</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>24/3/2024</t>
         </is>
       </c>
-      <c r="B29" s="10" t="n">
+      <c r="B29" s="9" t="n">
         <v>322464</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="C29" s="9" t="n">
         <v>243795</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>25/3/2024</t>
         </is>
       </c>
-      <c r="B30" s="10" t="n">
+      <c r="B30" s="9" t="n">
         <v>298388</v>
       </c>
-      <c r="C30" s="10" t="n">
+      <c r="C30" s="9" t="n">
         <v>238903</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>26/3/2024</t>
         </is>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="9" t="n">
         <v>304551</v>
       </c>
-      <c r="C31" s="10" t="n">
+      <c r="C31" s="9" t="n">
         <v>238787</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>27/3/2024</t>
         </is>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B32" s="9" t="n">
         <v>300982</v>
       </c>
-      <c r="C32" s="10" t="n">
+      <c r="C32" s="9" t="n">
         <v>234130</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>28/3/2024</t>
         </is>
       </c>
-      <c r="B33" s="10" t="n">
+      <c r="B33" s="9" t="n">
         <v>298066</v>
       </c>
-      <c r="C33" s="10" t="n">
+      <c r="C33" s="9" t="n">
         <v>225645</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>29/3/2024</t>
         </is>
       </c>
-      <c r="B34" s="10" t="n">
+      <c r="B34" s="9" t="n">
         <v>287754</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="C34" s="9" t="n">
         <v>212784</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>30/3/2024</t>
         </is>
       </c>
-      <c r="B35" s="10" t="n">
+      <c r="B35" s="9" t="n">
         <v>295782</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C35" s="9" t="n">
         <v>210472</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>31/3/2024</t>
         </is>
       </c>
-      <c r="B36" s="10" t="n">
+      <c r="B36" s="9" t="n">
         <v>295015</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C36" s="9" t="n">
         <v>217211</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>1/4/2024</t>
         </is>
       </c>
-      <c r="B37" s="10" t="n">
+      <c r="B37" s="9" t="n">
         <v>306461</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C37" s="9" t="n">
         <v>212331</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37" s="4" t="n">
         <v>298935</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="4" t="n">
         <v>231285</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>2/4/2024</t>
         </is>
       </c>
-      <c r="B38" s="10" t="n">
+      <c r="B38" s="9" t="n">
         <v>291068</v>
       </c>
-      <c r="C38" s="10" t="n">
+      <c r="C38" s="9" t="n">
         <v>211506</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>3/4/2024</t>
         </is>
       </c>
-      <c r="B39" s="10" t="n">
+      <c r="B39" s="9" t="n">
         <v>288335</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="9" t="n">
         <v>212188</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>4/4/2024</t>
         </is>
       </c>
-      <c r="B40" s="10" t="n">
+      <c r="B40" s="9" t="n">
         <v>286909</v>
       </c>
-      <c r="C40" s="10" t="n">
+      <c r="C40" s="9" t="n">
         <v>213869</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>5/4/2024</t>
         </is>
       </c>
-      <c r="B41" s="10" t="n">
+      <c r="B41" s="9" t="n">
         <v>281069</v>
       </c>
-      <c r="C41" s="10" t="n">
+      <c r="C41" s="9" t="n">
         <v>215005</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>6/4/2024</t>
         </is>
       </c>
-      <c r="B42" s="10" t="n">
+      <c r="B42" s="9" t="n">
         <v>283271</v>
       </c>
-      <c r="C42" s="10" t="n">
+      <c r="C42" s="9" t="n">
         <v>216909</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>7/4/2024</t>
         </is>
       </c>
-      <c r="B43" s="10" t="n">
+      <c r="B43" s="9" t="n">
         <v>272290</v>
       </c>
-      <c r="C43" s="10" t="n">
+      <c r="C43" s="9" t="n">
         <v>210766</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>8/4/2024</t>
         </is>
       </c>
-      <c r="B44" s="10" t="n">
+      <c r="B44" s="9" t="n">
         <v>276570</v>
       </c>
-      <c r="C44" s="10" t="n">
+      <c r="C44" s="9" t="n">
         <v>221497</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>9/4/2024</t>
         </is>
       </c>
-      <c r="B45" s="10" t="n">
+      <c r="B45" s="9" t="n">
         <v>282829</v>
       </c>
-      <c r="C45" s="10" t="n">
+      <c r="C45" s="9" t="n">
         <v>208198</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>10/4/2024</t>
         </is>
       </c>
-      <c r="B46" s="10" t="n">
+      <c r="B46" s="9" t="n">
         <v>284493</v>
       </c>
-      <c r="C46" s="10" t="n">
+      <c r="C46" s="9" t="n">
         <v>215042</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="inlineStr">
+      <c r="A47" s="5" t="inlineStr">
         <is>
           <t>11/4/2024</t>
         </is>
       </c>
-      <c r="B47" s="10" t="n">
+      <c r="B47" s="9" t="n">
         <v>286488</v>
       </c>
-      <c r="C47" s="10" t="n">
+      <c r="C47" s="9" t="n">
         <v>213350</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>12/4/2024</t>
         </is>
       </c>
-      <c r="B48" s="10" t="n">
+      <c r="B48" s="9" t="n">
         <v>287610</v>
       </c>
-      <c r="C48" s="10" t="n">
+      <c r="C48" s="9" t="n">
         <v>210659</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>13/4/2024</t>
         </is>
       </c>
-      <c r="B49" s="10" t="n">
+      <c r="B49" s="9" t="n">
         <v>281006</v>
       </c>
-      <c r="C49" s="10" t="n">
+      <c r="C49" s="9" t="n">
         <v>205831</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>14/4/2024</t>
         </is>
       </c>
-      <c r="B50" s="10" t="n">
+      <c r="B50" s="9" t="n">
         <v>279412</v>
       </c>
-      <c r="C50" s="10" t="n">
+      <c r="C50" s="9" t="n">
         <v>205663</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>15/4/2024</t>
         </is>
       </c>
-      <c r="B51" s="10" t="n">
+      <c r="B51" s="9" t="n">
         <v>297204</v>
       </c>
-      <c r="C51" s="10" t="n">
+      <c r="C51" s="9" t="n">
         <v>197189</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>16/4/2024</t>
         </is>
       </c>
-      <c r="B52" s="10" t="n">
+      <c r="B52" s="9" t="n">
         <v>284576</v>
       </c>
-      <c r="C52" s="10" t="n">
+      <c r="C52" s="9" t="n">
         <v>203922</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="inlineStr">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>17/4/2024</t>
         </is>
       </c>
-      <c r="B53" s="10" t="n">
+      <c r="B53" s="9" t="n">
         <v>287081</v>
       </c>
-      <c r="C53" s="10" t="n">
+      <c r="C53" s="9" t="n">
         <v>211861</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>18/4/2024</t>
         </is>
       </c>
-      <c r="B54" s="10" t="n">
+      <c r="B54" s="9" t="n">
         <v>288785</v>
       </c>
-      <c r="C54" s="10" t="n">
+      <c r="C54" s="9" t="n">
         <v>207952</v>
       </c>
       <c r="I54" s="3" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>19/4/2024</t>
         </is>
       </c>
-      <c r="B55" s="10" t="n">
+      <c r="B55" s="9" t="n">
         <v>289874</v>
       </c>
-      <c r="C55" s="10" t="n">
+      <c r="C55" s="9" t="n">
         <v>209166</v>
       </c>
       <c r="I55" s="3" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>20/4/2024</t>
         </is>
       </c>
-      <c r="B56" s="10" t="n">
+      <c r="B56" s="9" t="n">
         <v>286144</v>
       </c>
-      <c r="C56" s="10" t="n">
+      <c r="C56" s="9" t="n">
         <v>211630</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="inlineStr">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>21/4/2024</t>
         </is>
       </c>
-      <c r="B57" s="10" t="n">
+      <c r="B57" s="9" t="n">
         <v>288304</v>
       </c>
-      <c r="C57" s="10" t="n">
+      <c r="C57" s="9" t="n">
         <v>209556</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="inlineStr">
+      <c r="A58" s="5" t="inlineStr">
         <is>
           <t>22/4/2024</t>
         </is>
       </c>
-      <c r="B58" s="10" t="n">
+      <c r="B58" s="9" t="n">
         <v>288219</v>
       </c>
-      <c r="C58" s="10" t="n">
+      <c r="C58" s="9" t="n">
         <v>210779</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="inlineStr">
+      <c r="A59" s="5" t="inlineStr">
         <is>
           <t>23/4/2024</t>
         </is>
       </c>
-      <c r="B59" s="10" t="n">
+      <c r="B59" s="9" t="n">
         <v>287970</v>
       </c>
-      <c r="C59" s="10" t="n">
+      <c r="C59" s="9" t="n">
         <v>211714</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>24/4/2024</t>
         </is>
       </c>
-      <c r="B60" s="10" t="n">
+      <c r="B60" s="9" t="n">
         <v>283953</v>
       </c>
-      <c r="C60" s="10" t="n">
+      <c r="C60" s="9" t="n">
         <v>205941</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>25/4/2024</t>
         </is>
       </c>
-      <c r="B61" s="10" t="n">
+      <c r="B61" s="9" t="n">
         <v>285397</v>
       </c>
-      <c r="C61" s="10" t="n">
+      <c r="C61" s="9" t="n">
         <v>205049</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>26/4/2024</t>
         </is>
       </c>
-      <c r="B62" s="10" t="n">
+      <c r="B62" s="9" t="n">
         <v>296955</v>
       </c>
-      <c r="C62" s="10" t="n">
+      <c r="C62" s="9" t="n">
         <v>203915</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="10" t="inlineStr">
+      <c r="A63" s="9" t="inlineStr">
         <is>
           <t>27/4/2024</t>
         </is>
       </c>
-      <c r="B63" s="10" t="n">
+      <c r="B63" s="9" t="n">
         <v>297589</v>
       </c>
-      <c r="C63" s="10" t="n">
+      <c r="C63" s="9" t="n">
         <v>201335</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="10" t="inlineStr">
+      <c r="A64" s="9" t="inlineStr">
         <is>
           <t>28/4/2024</t>
         </is>
       </c>
-      <c r="B64" s="10" t="n">
+      <c r="B64" s="9" t="n">
         <v>294812</v>
       </c>
-      <c r="C64" s="10" t="n">
+      <c r="C64" s="9" t="n">
         <v>195805</v>
       </c>
       <c r="G64" s="3" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="10" t="inlineStr">
+      <c r="A65" s="9" t="inlineStr">
         <is>
           <t>29/4/2024</t>
         </is>
       </c>
-      <c r="B65" s="10" t="n">
+      <c r="B65" s="9" t="n">
         <v>290873</v>
       </c>
-      <c r="C65" s="10" t="n">
+      <c r="C65" s="9" t="n">
         <v>194264</v>
       </c>
       <c r="G65" s="3" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="10" t="inlineStr">
+      <c r="A66" s="9" t="inlineStr">
         <is>
           <t>30/4/2024</t>
         </is>
       </c>
-      <c r="B66" s="10" t="n">
+      <c r="B66" s="9" t="n">
         <v>285952</v>
       </c>
-      <c r="C66" s="10" t="n">
+      <c r="C66" s="9" t="n">
         <v>196871</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="10" t="inlineStr">
+      <c r="A67" s="9" t="inlineStr">
         <is>
           <t>1/5/2024</t>
         </is>
       </c>
-      <c r="B67" s="10" t="n">
+      <c r="B67" s="9" t="n">
         <v>282768</v>
       </c>
-      <c r="C67" s="10" t="n">
+      <c r="C67" s="9" t="n">
         <v>197622</v>
       </c>
-      <c r="D67" s="5" t="n">
+      <c r="D67" s="4" t="n">
         <v>287383</v>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67" s="4" t="n">
         <v>208325</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="10" t="inlineStr">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>2/5/2024</t>
         </is>
       </c>
-      <c r="B68" s="10" t="n">
+      <c r="B68" s="9" t="n">
         <v>277379</v>
       </c>
-      <c r="C68" s="10" t="n">
+      <c r="C68" s="9" t="n">
         <v>200534</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>3/5/2024</t>
         </is>
       </c>
-      <c r="B69" s="10" t="n">
+      <c r="B69" s="9" t="n">
         <v>273819</v>
       </c>
-      <c r="C69" s="10" t="n">
+      <c r="C69" s="9" t="n">
         <v>205744</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="inlineStr">
+      <c r="A70" s="5" t="inlineStr">
         <is>
           <t>4/5/2024</t>
         </is>
       </c>
-      <c r="B70" s="10" t="n">
+      <c r="B70" s="9" t="n">
         <v>273371</v>
       </c>
-      <c r="C70" s="10" t="n">
+      <c r="C70" s="9" t="n">
         <v>210773</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="inlineStr">
+      <c r="A71" s="5" t="inlineStr">
         <is>
           <t>5/5/2024</t>
         </is>
       </c>
-      <c r="B71" s="10" t="n">
+      <c r="B71" s="9" t="n">
         <v>271891</v>
       </c>
-      <c r="C71" s="10" t="n">
+      <c r="C71" s="9" t="n">
         <v>215745</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="inlineStr">
+      <c r="A72" s="5" t="inlineStr">
         <is>
           <t>6/5/2024</t>
         </is>
       </c>
-      <c r="B72" s="10" t="n">
+      <c r="B72" s="9" t="n">
         <v>276455</v>
       </c>
-      <c r="C72" s="10" t="n">
+      <c r="C72" s="9" t="n">
         <v>215925</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="inlineStr">
+      <c r="A73" s="5" t="inlineStr">
         <is>
           <t>7/5/2024</t>
         </is>
       </c>
-      <c r="B73" s="10" t="n">
+      <c r="B73" s="9" t="n">
         <v>269692</v>
       </c>
-      <c r="C73" s="10" t="n">
+      <c r="C73" s="9" t="n">
         <v>213855</v>
       </c>
       <c r="F73" s="3" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr">
+      <c r="A74" s="5" t="inlineStr">
         <is>
           <t>8/5/2024</t>
         </is>
       </c>
-      <c r="B74" s="10" t="n">
+      <c r="B74" s="9" t="n">
         <v>275778</v>
       </c>
-      <c r="C74" s="10" t="n">
+      <c r="C74" s="9" t="n">
         <v>209558</v>
       </c>
       <c r="F74" s="3" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="inlineStr">
+      <c r="A75" s="5" t="inlineStr">
         <is>
           <t>9/5/2024</t>
         </is>
       </c>
-      <c r="B75" s="10" t="n">
+      <c r="B75" s="9" t="n">
         <v>285859</v>
       </c>
-      <c r="C75" s="10" t="n">
+      <c r="C75" s="9" t="n">
         <v>209261</v>
       </c>
       <c r="F75" s="3" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="inlineStr">
+      <c r="A76" s="5" t="inlineStr">
         <is>
           <t>10/5/2024</t>
         </is>
       </c>
-      <c r="B76" s="10" t="n">
+      <c r="B76" s="9" t="n">
         <v>297189</v>
       </c>
-      <c r="C76" s="10" t="n">
+      <c r="C76" s="9" t="n">
         <v>210616</v>
       </c>
       <c r="F76" s="3" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="inlineStr">
+      <c r="A77" s="5" t="inlineStr">
         <is>
           <t>11/5/2024</t>
         </is>
       </c>
-      <c r="B77" s="10" t="n">
+      <c r="B77" s="9" t="n">
         <v>289368</v>
       </c>
-      <c r="C77" s="10" t="n">
+      <c r="C77" s="9" t="n">
         <v>208291</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="inlineStr">
+      <c r="A78" s="5" t="inlineStr">
         <is>
           <t>12/5/2024</t>
         </is>
       </c>
-      <c r="B78" s="10" t="n">
+      <c r="B78" s="9" t="n">
         <v>283911</v>
       </c>
-      <c r="C78" s="10" t="n">
+      <c r="C78" s="9" t="n">
         <v>206961</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="inlineStr">
+      <c r="A79" s="5" t="inlineStr">
         <is>
           <t>13/5/2024</t>
         </is>
       </c>
-      <c r="B79" s="10" t="n">
+      <c r="B79" s="9" t="n">
         <v>276869</v>
       </c>
-      <c r="C79" s="10" t="n">
+      <c r="C79" s="9" t="n">
         <v>205654</v>
       </c>
       <c r="F79" s="3" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="inlineStr">
+      <c r="A80" s="5" t="inlineStr">
         <is>
           <t>14/5/2024</t>
         </is>
       </c>
-      <c r="B80" s="10" t="n">
+      <c r="B80" s="9" t="n">
         <v>281625</v>
       </c>
-      <c r="C80" s="10" t="n">
+      <c r="C80" s="9" t="n">
         <v>211063</v>
       </c>
       <c r="F80" s="3" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="inlineStr">
+      <c r="A81" s="5" t="inlineStr">
         <is>
           <t>15/5/2024</t>
         </is>
       </c>
-      <c r="B81" s="10" t="n">
+      <c r="B81" s="9" t="n">
         <v>281298</v>
       </c>
-      <c r="C81" s="10" t="n">
+      <c r="C81" s="9" t="n">
         <v>214430</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="inlineStr">
+      <c r="A82" s="5" t="inlineStr">
         <is>
           <t>16/5/2024</t>
         </is>
       </c>
-      <c r="B82" s="10" t="n">
+      <c r="B82" s="9" t="n">
         <v>278218</v>
       </c>
-      <c r="C82" s="10" t="n">
+      <c r="C82" s="9" t="n">
         <v>213445</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="inlineStr">
+      <c r="A83" s="5" t="inlineStr">
         <is>
           <t>17/5/2024</t>
         </is>
       </c>
-      <c r="B83" s="10" t="n">
+      <c r="B83" s="9" t="n">
         <v>285718</v>
       </c>
-      <c r="C83" s="10" t="n">
+      <c r="C83" s="9" t="n">
         <v>209467</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="inlineStr">
+      <c r="A84" s="5" t="inlineStr">
         <is>
           <t>18/5/2024</t>
         </is>
       </c>
-      <c r="B84" s="10" t="n">
+      <c r="B84" s="9" t="n">
         <v>277778</v>
       </c>
-      <c r="C84" s="10" t="n">
+      <c r="C84" s="9" t="n">
         <v>208595</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="inlineStr">
+      <c r="A85" s="8" t="inlineStr">
         <is>
           <t>19/5/2024</t>
         </is>
       </c>
-      <c r="B85" s="10" t="n">
+      <c r="B85" s="9" t="n">
         <v>276066</v>
       </c>
-      <c r="C85" s="10" t="n">
+      <c r="C85" s="9" t="n">
         <v>207717</v>
       </c>
     </row>
@@ -1615,6 +1614,19 @@
       </c>
       <c r="C86" t="n">
         <v>208763</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>21/5/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>274628</v>
+      </c>
+      <c r="C87" t="n">
+        <v>209922</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -435,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -476,6 +476,11 @@
           <t>precioapartamentomensual</t>
         </is>
       </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>mes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
@@ -962,6 +967,11 @@
       <c r="E37" s="4" t="n">
         <v>231285</v>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Marzo</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
@@ -1362,6 +1372,11 @@
       <c r="E67" s="4" t="n">
         <v>208325</v>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Abril</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
@@ -1627,6 +1642,136 @@
       </c>
       <c r="C87" t="n">
         <v>209922</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>22/5/2024</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>273736</v>
+      </c>
+      <c r="C88" t="n">
+        <v>203236</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>23/5/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>272089</v>
+      </c>
+      <c r="C89" t="n">
+        <v>204473</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>24/5/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>290788</v>
+      </c>
+      <c r="C90" t="n">
+        <v>208759</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>25/5/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>274724</v>
+      </c>
+      <c r="C91" t="n">
+        <v>204444</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>26/5/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>271899</v>
+      </c>
+      <c r="C92" t="n">
+        <v>203806</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>27/5/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>274246</v>
+      </c>
+      <c r="C93" t="n">
+        <v>204864</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>28/5/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>280584</v>
+      </c>
+      <c r="C94" t="n">
+        <v>203810</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>29/5/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>282538</v>
+      </c>
+      <c r="C95" t="n">
+        <v>205653</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>30/5/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>284018</v>
+      </c>
+      <c r="C96" t="n">
+        <v>210566</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>31/5/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>278300</v>
+      </c>
+      <c r="C97" t="n">
+        <v>210430</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -435,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1774,6 +1774,225 @@
         <v>210430</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1/6/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>277503</v>
+      </c>
+      <c r="C98" t="n">
+        <v>208978</v>
+      </c>
+      <c r="D98" t="n">
+        <v>278968</v>
+      </c>
+      <c r="E98" t="n">
+        <v>208193</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Mayo</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2/6/2024</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>277211</v>
+      </c>
+      <c r="C99" t="n">
+        <v>208949</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>3/6/2024</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>274283</v>
+      </c>
+      <c r="C100" t="n">
+        <v>211621</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4/6/2024</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>273135</v>
+      </c>
+      <c r="C101" t="n">
+        <v>209914</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>5/6/2024</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>272523</v>
+      </c>
+      <c r="C102" t="n">
+        <v>204424</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>6/6/2024</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>267370</v>
+      </c>
+      <c r="C103" t="n">
+        <v>204806</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>7/6/2024</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>274828</v>
+      </c>
+      <c r="C104" t="n">
+        <v>207520</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>8/6/2024</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>266926</v>
+      </c>
+      <c r="C105" t="n">
+        <v>208226</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>9/6/2024</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>271366</v>
+      </c>
+      <c r="C106" t="n">
+        <v>207723</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10/6/2024</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>270523</v>
+      </c>
+      <c r="C107" t="n">
+        <v>209239</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>11/6/2024</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>271634</v>
+      </c>
+      <c r="C108" t="n">
+        <v>215625</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>12/6/2024</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>268474</v>
+      </c>
+      <c r="C109" t="n">
+        <v>214037</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>13/6/2024</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>267590</v>
+      </c>
+      <c r="C110" t="n">
+        <v>212338</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>14/6/2024</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>267179</v>
+      </c>
+      <c r="C111" t="n">
+        <v>211049</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>15/6/2024</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>267017</v>
+      </c>
+      <c r="C112" t="n">
+        <v>209942</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>16/6/2024</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>266778</v>
+      </c>
+      <c r="C113" t="n">
+        <v>210528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Datos.xlsx
+++ b/Data/Datos.xlsx
@@ -65,33 +65,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,536 +439,536 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:K368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="14.6640625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="12.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="20.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.6640625" customWidth="1" style="11" min="1" max="1"/>
+    <col width="12.88671875" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="20.88671875" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="29.109375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>fecha</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>preciocasa</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>precioapartamento</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>preciocasamensual</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>precioapartamentomensual</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>mes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>26/2/2024</t>
         </is>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="6" t="n">
         <v>289419</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="6" t="n">
         <v>224074</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>27/2/2024</t>
         </is>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="6" t="n">
         <v>286777</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="6" t="n">
         <v>222417</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>28/2/2024</t>
         </is>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="6" t="n">
         <v>289366</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="6" t="n">
         <v>228142</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>29/2/2024</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="6" t="n">
         <v>294838</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="6" t="n">
         <v>233277</v>
       </c>
       <c r="J5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>1/3/2024</t>
         </is>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="6" t="n">
         <v>304689</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="6" t="n">
         <v>242201</v>
       </c>
       <c r="J6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>2/3/2024</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="6" t="n">
         <v>297353</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="6" t="n">
         <v>234090</v>
       </c>
       <c r="J7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>3/3/2024</t>
         </is>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="6" t="n">
         <v>299528</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="6" t="n">
         <v>234567</v>
       </c>
       <c r="J8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>4/3/2024</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="6" t="n">
         <v>297147</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="6" t="n">
         <v>232072</v>
       </c>
       <c r="J9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>5/3/2024</t>
         </is>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="6" t="n">
         <v>298512</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="6" t="n">
         <v>218926</v>
       </c>
       <c r="J10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>6/3/2024</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="6" t="n">
         <v>299478</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="6" t="n">
         <v>230983</v>
       </c>
       <c r="J11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>7/3/2024</t>
         </is>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="6" t="n">
         <v>285891</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="6" t="n">
         <v>211269</v>
       </c>
       <c r="J12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>8/3/2024</t>
         </is>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="6" t="n">
         <v>286112</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="6" t="n">
         <v>206535</v>
       </c>
       <c r="J13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="9" t="inlineStr">
         <is>
           <t>9/3/2024</t>
         </is>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="6" t="n">
         <v>289999</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="6" t="n">
         <v>207414</v>
       </c>
       <c r="J14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="9" t="inlineStr">
         <is>
           <t>10/3/2024</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="6" t="n">
         <v>294244</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="6" t="n">
         <v>210714</v>
       </c>
       <c r="J15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t>11/3/2024</t>
         </is>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="6" t="n">
         <v>290654</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="6" t="n">
         <v>208866</v>
       </c>
       <c r="J16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>12/3/2024</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="6" t="n">
         <v>293155</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="6" t="n">
         <v>208920</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>13/3/2024</t>
         </is>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="6" t="n">
         <v>303344</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="6" t="n">
         <v>238064</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>14/3/2024</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="6" t="n">
         <v>298742</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="6" t="n">
         <v>250940</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>15/3/2024</t>
         </is>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="6" t="n">
         <v>317125</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="6" t="n">
         <v>247903</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="9" t="inlineStr">
         <is>
           <t>16/3/2024</t>
         </is>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="6" t="n">
         <v>317243</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="6" t="n">
         <v>253202</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>17/3/2024</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="6" t="n">
         <v>319810</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="6" t="n">
         <v>256049</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>18/3/2024</t>
         </is>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="6" t="n">
         <v>281492</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="6" t="n">
         <v>241523</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>19/3/2024</t>
         </is>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="6" t="n">
         <v>283134</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="6" t="n">
         <v>241749</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>20/3/2024</t>
         </is>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="6" t="n">
         <v>284410</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="6" t="n">
         <v>238660</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>21/3/2024</t>
         </is>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="6" t="n">
         <v>288546</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="6" t="n">
         <v>235541</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="9" t="inlineStr">
         <is>
           <t>22/3/2024</t>
         </is>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="6" t="n">
         <v>314189</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="6" t="n">
         <v>252996</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>23/3/2024</t>
         </is>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="6" t="n">
         <v>319177</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="6" t="n">
         <v>244926</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="9" t="inlineStr">
         <is>
           <t>24/3/2024</t>
         </is>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="6" t="n">
         <v>322464</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="6" t="n">
         <v>243795</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>25/3/2024</t>
         </is>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="6" t="n">
         <v>298388</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="6" t="n">
         <v>238903</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="9" t="inlineStr">
         <is>
           <t>26/3/2024</t>
         </is>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="6" t="n">
         <v>304551</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="6" t="n">
         <v>238787</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>27/3/2024</t>
         </is>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="6" t="n">
         <v>300982</v>
       </c>
-      <c r="C32" s="9" t="n">
+      <c r="C32" s="6" t="n">
         <v>234130</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>28/3/2024</t>
         </is>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="6" t="n">
         <v>298066</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C33" s="6" t="n">
         <v>225645</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>29/3/2024</t>
         </is>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="6" t="n">
         <v>287754</v>
       </c>
-      <c r="C34" s="9" t="n">
+      <c r="C34" s="6" t="n">
         <v>212784</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="9" t="inlineStr">
         <is>
           <t>30/3/2024</t>
         </is>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="6" t="n">
         <v>295782</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="6" t="n">
         <v>210472</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>31/3/2024</t>
         </is>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="6" t="n">
         <v>295015</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="6" t="n">
         <v>217211</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>1/4/2024</t>
         </is>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="6" t="n">
         <v>306461</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="6" t="n">
         <v>212331</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="3" t="n">
         <v>298935</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="3" t="n">
         <v>231285</v>
       </c>
       <c r="F37" t="inlineStr">
@@ -974,329 +978,329 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>2/4/2024</t>
         </is>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="6" t="n">
         <v>291068</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="6" t="n">
         <v>211506</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="9" t="inlineStr">
         <is>
           <t>3/4/2024</t>
         </is>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="6" t="n">
         <v>288335</v>
       </c>
-      <c r="C39" s="9" t="n">
+      <c r="C39" s="6" t="n">
         <v>212188</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>4/4/2024</t>
         </is>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="6" t="n">
         <v>286909</v>
       </c>
-      <c r="C40" s="9" t="n">
+      <c r="C40" s="6" t="n">
         <v>213869</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>5/4/2024</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="6" t="n">
         <v>281069</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="6" t="n">
         <v>215005</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>6/4/2024</t>
         </is>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="6" t="n">
         <v>283271</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="6" t="n">
         <v>216909</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>7/4/2024</t>
         </is>
       </c>
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="6" t="n">
         <v>272290</v>
       </c>
-      <c r="C43" s="9" t="n">
+      <c r="C43" s="6" t="n">
         <v>210766</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="A44" s="9" t="inlineStr">
         <is>
           <t>8/4/2024</t>
         </is>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="6" t="n">
         <v>276570</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="6" t="n">
         <v>221497</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="A45" s="9" t="inlineStr">
         <is>
           <t>9/4/2024</t>
         </is>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="6" t="n">
         <v>282829</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="6" t="n">
         <v>208198</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>10/4/2024</t>
         </is>
       </c>
-      <c r="B46" s="9" t="n">
+      <c r="B46" s="6" t="n">
         <v>284493</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C46" s="6" t="n">
         <v>215042</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="inlineStr">
+      <c r="A47" s="9" t="inlineStr">
         <is>
           <t>11/4/2024</t>
         </is>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B47" s="6" t="n">
         <v>286488</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="6" t="n">
         <v>213350</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="inlineStr">
+      <c r="A48" s="9" t="inlineStr">
         <is>
           <t>12/4/2024</t>
         </is>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="6" t="n">
         <v>287610</v>
       </c>
-      <c r="C48" s="9" t="n">
+      <c r="C48" s="6" t="n">
         <v>210659</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="inlineStr">
+      <c r="A49" s="9" t="inlineStr">
         <is>
           <t>13/4/2024</t>
         </is>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="6" t="n">
         <v>281006</v>
       </c>
-      <c r="C49" s="9" t="n">
+      <c r="C49" s="6" t="n">
         <v>205831</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+      <c r="A50" s="9" t="inlineStr">
         <is>
           <t>14/4/2024</t>
         </is>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B50" s="6" t="n">
         <v>279412</v>
       </c>
-      <c r="C50" s="9" t="n">
+      <c r="C50" s="6" t="n">
         <v>205663</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+      <c r="A51" s="9" t="inlineStr">
         <is>
           <t>15/4/2024</t>
         </is>
       </c>
-      <c r="B51" s="9" t="n">
+      <c r="B51" s="6" t="n">
         <v>297204</v>
       </c>
-      <c r="C51" s="9" t="n">
+      <c r="C51" s="6" t="n">
         <v>197189</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>16/4/2024</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n">
+      <c r="B52" s="6" t="n">
         <v>284576</v>
       </c>
-      <c r="C52" s="9" t="n">
+      <c r="C52" s="6" t="n">
         <v>203922</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
+      <c r="A53" s="9" t="inlineStr">
         <is>
           <t>17/4/2024</t>
         </is>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="6" t="n">
         <v>287081</v>
       </c>
-      <c r="C53" s="9" t="n">
+      <c r="C53" s="6" t="n">
         <v>211861</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+      <c r="A54" s="9" t="inlineStr">
         <is>
           <t>18/4/2024</t>
         </is>
       </c>
-      <c r="B54" s="9" t="n">
+      <c r="B54" s="6" t="n">
         <v>288785</v>
       </c>
-      <c r="C54" s="9" t="n">
+      <c r="C54" s="6" t="n">
         <v>207952</v>
       </c>
-      <c r="I54" s="3" t="n"/>
+      <c r="I54" s="2" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>19/4/2024</t>
         </is>
       </c>
-      <c r="B55" s="9" t="n">
+      <c r="B55" s="6" t="n">
         <v>289874</v>
       </c>
-      <c r="C55" s="9" t="n">
+      <c r="C55" s="6" t="n">
         <v>209166</v>
       </c>
-      <c r="I55" s="3" t="n"/>
+      <c r="I55" s="2" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>20/4/2024</t>
         </is>
       </c>
-      <c r="B56" s="9" t="n">
+      <c r="B56" s="6" t="n">
         <v>286144</v>
       </c>
-      <c r="C56" s="9" t="n">
+      <c r="C56" s="6" t="n">
         <v>211630</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>21/4/2024</t>
         </is>
       </c>
-      <c r="B57" s="9" t="n">
+      <c r="B57" s="6" t="n">
         <v>288304</v>
       </c>
-      <c r="C57" s="9" t="n">
+      <c r="C57" s="6" t="n">
         <v>209556</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+      <c r="A58" s="9" t="inlineStr">
         <is>
           <t>22/4/2024</t>
         </is>
       </c>
-      <c r="B58" s="9" t="n">
+      <c r="B58" s="6" t="n">
         <v>288219</v>
       </c>
-      <c r="C58" s="9" t="n">
+      <c r="C58" s="6" t="n">
         <v>210779</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>23/4/2024</t>
         </is>
       </c>
-      <c r="B59" s="9" t="n">
+      <c r="B59" s="6" t="n">
         <v>287970</v>
       </c>
-      <c r="C59" s="9" t="n">
+      <c r="C59" s="6" t="n">
         <v>211714</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
+      <c r="A60" s="9" t="inlineStr">
         <is>
           <t>24/4/2024</t>
         </is>
       </c>
-      <c r="B60" s="9" t="n">
+      <c r="B60" s="6" t="n">
         <v>283953</v>
       </c>
-      <c r="C60" s="9" t="n">
+      <c r="C60" s="6" t="n">
         <v>205941</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>25/4/2024</t>
         </is>
       </c>
-      <c r="B61" s="9" t="n">
+      <c r="B61" s="6" t="n">
         <v>285397</v>
       </c>
-      <c r="C61" s="9" t="n">
+      <c r="C61" s="6" t="n">
         <v>205049</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="inlineStr">
+      <c r="A62" s="9" t="inlineStr">
         <is>
           <t>26/4/2024</t>
         </is>
       </c>
-      <c r="B62" s="9" t="n">
+      <c r="B62" s="6" t="n">
         <v>296955</v>
       </c>
-      <c r="C62" s="9" t="n">
+      <c r="C62" s="6" t="n">
         <v>203915</v>
       </c>
     </row>
@@ -1306,10 +1310,10 @@
           <t>27/4/2024</t>
         </is>
       </c>
-      <c r="B63" s="9" t="n">
+      <c r="B63" s="6" t="n">
         <v>297589</v>
       </c>
-      <c r="C63" s="9" t="n">
+      <c r="C63" s="6" t="n">
         <v>201335</v>
       </c>
     </row>
@@ -1319,13 +1323,13 @@
           <t>28/4/2024</t>
         </is>
       </c>
-      <c r="B64" s="9" t="n">
+      <c r="B64" s="6" t="n">
         <v>294812</v>
       </c>
-      <c r="C64" s="9" t="n">
+      <c r="C64" s="6" t="n">
         <v>195805</v>
       </c>
-      <c r="G64" s="3" t="n"/>
+      <c r="G64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
@@ -1333,13 +1337,13 @@
           <t>29/4/2024</t>
         </is>
       </c>
-      <c r="B65" s="9" t="n">
+      <c r="B65" s="6" t="n">
         <v>290873</v>
       </c>
-      <c r="C65" s="9" t="n">
+      <c r="C65" s="6" t="n">
         <v>194264</v>
       </c>
-      <c r="G65" s="3" t="n"/>
+      <c r="G65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
@@ -1347,10 +1351,10 @@
           <t>30/4/2024</t>
         </is>
       </c>
-      <c r="B66" s="9" t="n">
+      <c r="B66" s="6" t="n">
         <v>285952</v>
       </c>
-      <c r="C66" s="9" t="n">
+      <c r="C66" s="6" t="n">
         <v>196871</v>
       </c>
     </row>
@@ -1360,16 +1364,16 @@
           <t>1/5/2024</t>
         </is>
       </c>
-      <c r="B67" s="9" t="n">
+      <c r="B67" s="6" t="n">
         <v>282768</v>
       </c>
-      <c r="C67" s="9" t="n">
+      <c r="C67" s="6" t="n">
         <v>197622</v>
       </c>
-      <c r="D67" s="4" t="n">
+      <c r="D67" s="3" t="n">
         <v>287383</v>
       </c>
-      <c r="E67" s="4" t="n">
+      <c r="E67" s="3" t="n">
         <v>208325</v>
       </c>
       <c r="F67" t="inlineStr">
@@ -1384,406 +1388,406 @@
           <t>2/5/2024</t>
         </is>
       </c>
-      <c r="B68" s="9" t="n">
+      <c r="B68" s="6" t="n">
         <v>277379</v>
       </c>
-      <c r="C68" s="9" t="n">
+      <c r="C68" s="6" t="n">
         <v>200534</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="inlineStr">
+      <c r="A69" s="9" t="inlineStr">
         <is>
           <t>3/5/2024</t>
         </is>
       </c>
-      <c r="B69" s="9" t="n">
+      <c r="B69" s="6" t="n">
         <v>273819</v>
       </c>
-      <c r="C69" s="9" t="n">
+      <c r="C69" s="6" t="n">
         <v>205744</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="inlineStr">
+      <c r="A70" s="9" t="inlineStr">
         <is>
           <t>4/5/2024</t>
         </is>
       </c>
-      <c r="B70" s="9" t="n">
+      <c r="B70" s="6" t="n">
         <v>273371</v>
       </c>
-      <c r="C70" s="9" t="n">
+      <c r="C70" s="6" t="n">
         <v>210773</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="inlineStr">
+      <c r="A71" s="9" t="inlineStr">
         <is>
           <t>5/5/2024</t>
         </is>
       </c>
-      <c r="B71" s="9" t="n">
+      <c r="B71" s="6" t="n">
         <v>271891</v>
       </c>
-      <c r="C71" s="9" t="n">
+      <c r="C71" s="6" t="n">
         <v>215745</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
+      <c r="A72" s="9" t="inlineStr">
         <is>
           <t>6/5/2024</t>
         </is>
       </c>
-      <c r="B72" s="9" t="n">
+      <c r="B72" s="6" t="n">
         <v>276455</v>
       </c>
-      <c r="C72" s="9" t="n">
+      <c r="C72" s="6" t="n">
         <v>215925</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
+      <c r="A73" s="9" t="inlineStr">
         <is>
           <t>7/5/2024</t>
         </is>
       </c>
-      <c r="B73" s="9" t="n">
+      <c r="B73" s="6" t="n">
         <v>269692</v>
       </c>
-      <c r="C73" s="9" t="n">
+      <c r="C73" s="6" t="n">
         <v>213855</v>
       </c>
-      <c r="F73" s="3" t="n"/>
+      <c r="F73" s="2" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="inlineStr">
+      <c r="A74" s="9" t="inlineStr">
         <is>
           <t>8/5/2024</t>
         </is>
       </c>
-      <c r="B74" s="9" t="n">
+      <c r="B74" s="6" t="n">
         <v>275778</v>
       </c>
-      <c r="C74" s="9" t="n">
+      <c r="C74" s="6" t="n">
         <v>209558</v>
       </c>
-      <c r="F74" s="3" t="n"/>
+      <c r="F74" s="2" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="inlineStr">
+      <c r="A75" s="9" t="inlineStr">
         <is>
           <t>9/5/2024</t>
         </is>
       </c>
-      <c r="B75" s="9" t="n">
+      <c r="B75" s="6" t="n">
         <v>285859</v>
       </c>
-      <c r="C75" s="9" t="n">
+      <c r="C75" s="6" t="n">
         <v>209261</v>
       </c>
-      <c r="F75" s="3" t="n"/>
+      <c r="F75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="inlineStr">
+      <c r="A76" s="9" t="inlineStr">
         <is>
           <t>10/5/2024</t>
         </is>
       </c>
-      <c r="B76" s="9" t="n">
+      <c r="B76" s="6" t="n">
         <v>297189</v>
       </c>
-      <c r="C76" s="9" t="n">
+      <c r="C76" s="6" t="n">
         <v>210616</v>
       </c>
-      <c r="F76" s="3" t="n"/>
+      <c r="F76" s="2" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="inlineStr">
+      <c r="A77" s="9" t="inlineStr">
         <is>
           <t>11/5/2024</t>
         </is>
       </c>
-      <c r="B77" s="9" t="n">
+      <c r="B77" s="6" t="n">
         <v>289368</v>
       </c>
-      <c r="C77" s="9" t="n">
+      <c r="C77" s="6" t="n">
         <v>208291</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="inlineStr">
+      <c r="A78" s="9" t="inlineStr">
         <is>
           <t>12/5/2024</t>
         </is>
       </c>
-      <c r="B78" s="9" t="n">
+      <c r="B78" s="6" t="n">
         <v>283911</v>
       </c>
-      <c r="C78" s="9" t="n">
+      <c r="C78" s="6" t="n">
         <v>206961</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="inlineStr">
+      <c r="A79" s="9" t="inlineStr">
         <is>
           <t>13/5/2024</t>
         </is>
       </c>
-      <c r="B79" s="9" t="n">
+      <c r="B79" s="6" t="n">
         <v>276869</v>
       </c>
-      <c r="C79" s="9" t="n">
+      <c r="C79" s="6" t="n">
         <v>205654</v>
       </c>
-      <c r="F79" s="3" t="n"/>
+      <c r="F79" s="2" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="inlineStr">
+      <c r="A80" s="9" t="inlineStr">
         <is>
           <t>14/5/2024</t>
         </is>
       </c>
-      <c r="B80" s="9" t="n">
+      <c r="B80" s="6" t="n">
         <v>281625</v>
       </c>
-      <c r="C80" s="9" t="n">
+      <c r="C80" s="6" t="n">
         <v>211063</v>
       </c>
-      <c r="F80" s="3" t="n"/>
+      <c r="F80" s="2" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="inlineStr">
+      <c r="A81" s="9" t="inlineStr">
         <is>
           <t>15/5/2024</t>
         </is>
       </c>
-      <c r="B81" s="9" t="n">
+      <c r="B81" s="6" t="n">
         <v>281298</v>
       </c>
-      <c r="C81" s="9" t="n">
+      <c r="C81" s="6" t="n">
         <v>214430</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="inlineStr">
+      <c r="A82" s="9" t="inlineStr">
         <is>
           <t>16/5/2024</t>
         </is>
       </c>
-      <c r="B82" s="9" t="n">
+      <c r="B82" s="6" t="n">
         <v>278218</v>
       </c>
-      <c r="C82" s="9" t="n">
+      <c r="C82" s="6" t="n">
         <v>213445</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="inlineStr">
+      <c r="A83" s="9" t="inlineStr">
         <is>
           <t>17/5/2024</t>
         </is>
       </c>
-      <c r="B83" s="9" t="n">
+      <c r="B83" s="6" t="n">
         <v>285718</v>
       </c>
-      <c r="C83" s="9" t="n">
+      <c r="C83" s="6" t="n">
         <v>209467</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="inlineStr">
+      <c r="A84" s="9" t="inlineStr">
         <is>
           <t>18/5/2024</t>
         </is>
       </c>
-      <c r="B84" s="9" t="n">
+      <c r="B84" s="6" t="n">
         <v>277778</v>
       </c>
-      <c r="C84" s="9" t="n">
+      <c r="C84" s="6" t="n">
         <v>208595</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="inlineStr">
+      <c r="A85" s="10" t="inlineStr">
         <is>
           <t>19/5/2024</t>
         </is>
       </c>
-      <c r="B85" s="9" t="n">
+      <c r="B85" s="6" t="n">
         <v>276066</v>
       </c>
-      <c r="C85" s="9" t="n">
+      <c r="C85" s="6" t="n">
         <v>207717</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="11" t="inlineStr">
         <is>
           <t>20/5/2024</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="7" t="n">
         <v>275408</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="7" t="n">
         <v>208763</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="11" t="inlineStr">
         <is>
           <t>21/5/2024</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="7" t="n">
         <v>274628</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="7" t="n">
         <v>209922</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="11" t="inlineStr">
         <is>
           <t>22/5/2024</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="7" t="n">
         <v>273736</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="7" t="n">
         <v>203236</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="11" t="inlineStr">
         <is>
           <t>23/5/2024</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="7" t="n">
         <v>272089</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="7" t="n">
         <v>204473</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="11" t="inlineStr">
         <is>
           <t>24/5/2024</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="7" t="n">
         <v>290788</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="7" t="n">
         <v>208759</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="11" t="inlineStr">
         <is>
           <t>25/5/2024</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="7" t="n">
         <v>274724</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="7" t="n">
         <v>204444</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="11" t="inlineStr">
         <is>
           <t>26/5/2024</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="7" t="n">
         <v>271899</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="7" t="n">
         <v>203806</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="11" t="inlineStr">
         <is>
           <t>27/5/2024</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="7" t="n">
         <v>274246</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="7" t="n">
         <v>204864</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="11" t="inlineStr">
         <is>
           <t>28/5/2024</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="7" t="n">
         <v>280584</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="7" t="n">
         <v>203810</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="11" t="inlineStr">
         <is>
           <t>29/5/2024</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="7" t="n">
         <v>282538</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="7" t="n">
         <v>205653</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="11" t="inlineStr">
         <is>
           <t>30/5/2024</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="7" t="n">
         <v>284018</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="7" t="n">
         <v>210566</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="11" t="inlineStr">
         <is>
           <t>31/5/2024</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="7" t="n">
         <v>278300</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="7" t="n">
         <v>210430</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="11" t="inlineStr">
         <is>
           <t>1/6/2024</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="7" t="n">
         <v>277503</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="7" t="n">
         <v>208978</v>
       </c>
       <c r="D98" t="n">
@@ -1799,198 +1803,3610 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="11" t="inlineStr">
         <is>
           <t>2/6/2024</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="7" t="n">
         <v>277211</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="7" t="n">
         <v>208949</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="11" t="inlineStr">
         <is>
           <t>3/6/2024</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="7" t="n">
         <v>274283</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="7" t="n">
         <v>211621</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="11" t="inlineStr">
         <is>
           <t>4/6/2024</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="7" t="n">
         <v>273135</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="7" t="n">
         <v>209914</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="11" t="inlineStr">
         <is>
           <t>5/6/2024</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="7" t="n">
         <v>272523</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="7" t="n">
         <v>204424</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="11" t="inlineStr">
         <is>
           <t>6/6/2024</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="7" t="n">
         <v>267370</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="7" t="n">
         <v>204806</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="11" t="inlineStr">
         <is>
           <t>7/6/2024</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="7" t="n">
         <v>274828</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="7" t="n">
         <v>207520</v>
       </c>
+      <c r="I104" t="n">
+        <v>250000</v>
+      </c>
+      <c r="J104" t="n">
+        <v>116</v>
+      </c>
+      <c r="K104" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="11" t="inlineStr">
         <is>
           <t>8/6/2024</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="7" t="n">
         <v>266926</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="7" t="n">
         <v>208226</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="11" t="inlineStr">
         <is>
           <t>9/6/2024</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="7" t="n">
         <v>271366</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="7" t="n">
         <v>207723</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="11" t="inlineStr">
         <is>
           <t>10/6/2024</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="7" t="n">
         <v>270523</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="7" t="n">
         <v>209239</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="11" t="inlineStr">
         <is>
           <t>11/6/2024</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="7" t="n">
         <v>271634</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="7" t="n">
         <v>215625</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="11" t="inlineStr">
         <is>
           <t>12/6/2024</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="7" t="n">
         <v>268474</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="7" t="n">
         <v>214037</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="11" t="inlineStr">
         <is>
           <t>13/6/2024</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="7" t="n">
         <v>267590</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="7" t="n">
         <v>212338</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="11" t="inlineStr">
         <is>
           <t>14/6/2024</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="7" t="n">
         <v>267179</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="7" t="n">
         <v>211049</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="11" t="inlineStr">
         <is>
           <t>15/6/2024</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="7" t="n">
         <v>267017</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="7" t="n">
         <v>209942</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="11" t="inlineStr">
         <is>
           <t>16/6/2024</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="7" t="n">
         <v>266778</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="7" t="n">
         <v>210528</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="11" t="inlineStr">
+        <is>
+          <t>17/6/2024</t>
+        </is>
+      </c>
+      <c r="B114" s="7" t="n">
+        <v>268388</v>
+      </c>
+      <c r="C114" s="7" t="n">
+        <v>209673</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="inlineStr">
+        <is>
+          <t>18/6/2024</t>
+        </is>
+      </c>
+      <c r="B115" s="7" t="n">
+        <v>361861</v>
+      </c>
+      <c r="C115" s="7" t="n">
+        <v>269435</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="11" t="inlineStr">
+        <is>
+          <t>19/6/2024</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>516564</v>
+      </c>
+      <c r="C116" s="7" t="n">
+        <v>377189</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="11" t="inlineStr">
+        <is>
+          <t>20/6/2024</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>518517</v>
+      </c>
+      <c r="C117" s="7" t="n">
+        <v>386765</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11" t="inlineStr">
+        <is>
+          <t>21/6/2024</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>524281</v>
+      </c>
+      <c r="C118" s="7" t="n">
+        <v>392172</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="11" t="inlineStr">
+        <is>
+          <t>22/6/2024</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>521573</v>
+      </c>
+      <c r="C119" s="7" t="n">
+        <v>398277</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="11" t="inlineStr">
+        <is>
+          <t>23/6/2024</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>521470</v>
+      </c>
+      <c r="C120" s="7" t="n">
+        <v>398881</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="11" t="inlineStr">
+        <is>
+          <t>24/6/2024</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>522578</v>
+      </c>
+      <c r="C121" s="7" t="n">
+        <v>398707</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="11" t="inlineStr">
+        <is>
+          <t>25/6/2024</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>538000</v>
+      </c>
+      <c r="C122" s="7" t="n">
+        <v>398688</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11" t="inlineStr">
+        <is>
+          <t>26/6/2024</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>541797</v>
+      </c>
+      <c r="C123" s="7" t="n">
+        <v>395320</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="11" t="inlineStr">
+        <is>
+          <t>27/6/2024</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>543622</v>
+      </c>
+      <c r="C124" s="7" t="n">
+        <v>388426</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="11" t="inlineStr">
+        <is>
+          <t>28/6/2024</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>538978</v>
+      </c>
+      <c r="C125" s="7" t="n">
+        <v>378344</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="11" t="inlineStr">
+        <is>
+          <t>29/6/2024</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>548172</v>
+      </c>
+      <c r="C126" s="7" t="n">
+        <v>381615</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="11" t="inlineStr">
+        <is>
+          <t>30/6/2024</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>544118</v>
+      </c>
+      <c r="C127" s="7" t="n">
+        <v>382482</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="11" t="inlineStr">
+        <is>
+          <t>1/7/2024</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>540746</v>
+      </c>
+      <c r="C128" s="7" t="n">
+        <v>383399</v>
+      </c>
+      <c r="D128" t="n">
+        <v>378142</v>
+      </c>
+      <c r="E128" t="n">
+        <v>283696</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="11" t="inlineStr">
+        <is>
+          <t>2/7/2024</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>538149</v>
+      </c>
+      <c r="C129" s="7" t="n">
+        <v>386817</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11" t="inlineStr">
+        <is>
+          <t>3/7/2024</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>540734</v>
+      </c>
+      <c r="C130" s="7" t="n">
+        <v>389334</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="11" t="inlineStr">
+        <is>
+          <t>4/7/2024</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>537956</v>
+      </c>
+      <c r="C131" s="7" t="n">
+        <v>391306</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="11" t="inlineStr">
+        <is>
+          <t>5/7/2024</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>535611</v>
+      </c>
+      <c r="C132" s="7" t="n">
+        <v>391377</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="11" t="inlineStr">
+        <is>
+          <t>6/7/2024</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>532413</v>
+      </c>
+      <c r="C133" s="7" t="n">
+        <v>391694</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="11" t="inlineStr">
+        <is>
+          <t>7/7/2024</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>534925</v>
+      </c>
+      <c r="C134" s="7" t="n">
+        <v>391769</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="11" t="inlineStr">
+        <is>
+          <t>8/7/2024</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>531402</v>
+      </c>
+      <c r="C135" s="7" t="n">
+        <v>386457</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="11" t="inlineStr">
+        <is>
+          <t>9/7/2024</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>530436</v>
+      </c>
+      <c r="C136" s="7" t="n">
+        <v>377885</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="11" t="inlineStr">
+        <is>
+          <t>10/7/2024</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>530002</v>
+      </c>
+      <c r="C137" s="7" t="n">
+        <v>374203</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="11" t="inlineStr">
+        <is>
+          <t>11/7/2024</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>531626</v>
+      </c>
+      <c r="C138" s="7" t="n">
+        <v>371195</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="11" t="inlineStr">
+        <is>
+          <t>12/7/2024</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>537825</v>
+      </c>
+      <c r="C139" s="7" t="n">
+        <v>367143</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="11" t="inlineStr">
+        <is>
+          <t>13/7/2024</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>532667</v>
+      </c>
+      <c r="C140" s="7" t="n">
+        <v>373974</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="11" t="inlineStr">
+        <is>
+          <t>14/7/2024</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>529698</v>
+      </c>
+      <c r="C141" s="7" t="n">
+        <v>371984</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="11" t="inlineStr">
+        <is>
+          <t>15/7/2024</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>528850</v>
+      </c>
+      <c r="C142" s="7" t="n">
+        <v>358485</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="11" t="inlineStr">
+        <is>
+          <t>16/7/2024</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>525829</v>
+      </c>
+      <c r="C143" s="7" t="n">
+        <v>344723</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="11" t="inlineStr">
+        <is>
+          <t>17/7/2024</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>524970</v>
+      </c>
+      <c r="C144" s="7" t="n">
+        <v>355673</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="11" t="inlineStr">
+        <is>
+          <t>18/7/2024</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>525167</v>
+      </c>
+      <c r="C145" s="7" t="n">
+        <v>355133</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="11" t="inlineStr">
+        <is>
+          <t>19/7/2024</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>527491</v>
+      </c>
+      <c r="C146" s="7" t="n">
+        <v>363839</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11" t="inlineStr">
+        <is>
+          <t>20/7/2024</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>527817</v>
+      </c>
+      <c r="C147" s="7" t="n">
+        <v>358309</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="11" t="inlineStr">
+        <is>
+          <t>21/7/2024</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>527259</v>
+      </c>
+      <c r="C148" s="7" t="n">
+        <v>355120</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="11" t="inlineStr">
+        <is>
+          <t>22/7/2024</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>525872</v>
+      </c>
+      <c r="C149" s="7" t="n">
+        <v>357734</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="11" t="inlineStr">
+        <is>
+          <t>23/7/2024</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>528790</v>
+      </c>
+      <c r="C150" s="7" t="n">
+        <v>369711</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="11" t="inlineStr">
+        <is>
+          <t>24/7/2024</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>528481</v>
+      </c>
+      <c r="C151" s="7" t="n">
+        <v>369090</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11" t="inlineStr">
+        <is>
+          <t>25/7/2024</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>530282</v>
+      </c>
+      <c r="C152" s="7" t="n">
+        <v>364451</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="11" t="inlineStr">
+        <is>
+          <t>26/7/2024</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>531075</v>
+      </c>
+      <c r="C153" s="7" t="n">
+        <v>350952</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="11" t="inlineStr">
+        <is>
+          <t>27/7/2024</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>530858</v>
+      </c>
+      <c r="C154" s="7" t="n">
+        <v>357015</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="11" t="inlineStr">
+        <is>
+          <t>28/7/2024</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>534988</v>
+      </c>
+      <c r="C155" s="7" t="n">
+        <v>364752</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="11" t="inlineStr">
+        <is>
+          <t>29/7/2024</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>536173</v>
+      </c>
+      <c r="C156" s="7" t="n">
+        <v>357624</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="11" t="inlineStr">
+        <is>
+          <t>30/7/2024</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>536113</v>
+      </c>
+      <c r="C157" s="7" t="n">
+        <v>351148</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="11" t="inlineStr">
+        <is>
+          <t>31/7/2024</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>535417</v>
+      </c>
+      <c r="C158" s="7" t="n">
+        <v>349193</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="11" t="inlineStr">
+        <is>
+          <t>1/8/2024</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>535306</v>
+      </c>
+      <c r="C159" s="7" t="n">
+        <v>351276</v>
+      </c>
+      <c r="D159" t="n">
+        <v>531923</v>
+      </c>
+      <c r="E159" t="n">
+        <v>368758</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Julio</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="11" t="inlineStr">
+        <is>
+          <t>2/8/2024</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>528113</v>
+      </c>
+      <c r="C160" s="7" t="n">
+        <v>367015</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="11" t="inlineStr">
+        <is>
+          <t>3/8/2024</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>529022</v>
+      </c>
+      <c r="C161" s="7" t="n">
+        <v>366339</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="11" t="inlineStr">
+        <is>
+          <t>4/8/2024</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>528922</v>
+      </c>
+      <c r="C162" s="7" t="n">
+        <v>368135</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="11" t="inlineStr">
+        <is>
+          <t>6/8/2024</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>523798</v>
+      </c>
+      <c r="C163" s="7" t="n">
+        <v>351503</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="11" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>522817</v>
+      </c>
+      <c r="C164" s="7" t="n">
+        <v>348693</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="11" t="inlineStr">
+        <is>
+          <t>8/8/2024</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>513329</v>
+      </c>
+      <c r="C165" s="7" t="n">
+        <v>328068</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="11" t="inlineStr">
+        <is>
+          <t>9/8/2024</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>527172</v>
+      </c>
+      <c r="C166" s="7" t="n">
+        <v>341093</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="11" t="inlineStr">
+        <is>
+          <t>10/8/2024</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>528845</v>
+      </c>
+      <c r="C167" s="7" t="n">
+        <v>355077</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="11" t="inlineStr">
+        <is>
+          <t>11/8/2024</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>528550</v>
+      </c>
+      <c r="C168" s="7" t="n">
+        <v>347508</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="11" t="inlineStr">
+        <is>
+          <t>12/8/2024</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>515281</v>
+      </c>
+      <c r="C169" s="7" t="n">
+        <v>342933</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="11" t="inlineStr">
+        <is>
+          <t>13/8/2024</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>515711</v>
+      </c>
+      <c r="C170" s="7" t="n">
+        <v>357730</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="11" t="inlineStr">
+        <is>
+          <t>14/8/2024</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>520178</v>
+      </c>
+      <c r="C171" s="7" t="n">
+        <v>361927</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="11" t="inlineStr">
+        <is>
+          <t>15/8/2024</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>525322</v>
+      </c>
+      <c r="C172" s="7" t="n">
+        <v>374601</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="11" t="inlineStr">
+        <is>
+          <t>16/8/2024</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>527085</v>
+      </c>
+      <c r="C173" s="7" t="n">
+        <v>386144</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="11" t="inlineStr">
+        <is>
+          <t>17/8/2024</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>527498</v>
+      </c>
+      <c r="C174" s="7" t="n">
+        <v>384892</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="11" t="inlineStr">
+        <is>
+          <t>18/8/2024</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>531296</v>
+      </c>
+      <c r="C175" s="7" t="n">
+        <v>379079</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="11" t="inlineStr">
+        <is>
+          <t>19/8/2024</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>529294</v>
+      </c>
+      <c r="C176" s="7" t="n">
+        <v>376638</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="11" t="inlineStr">
+        <is>
+          <t>20/8/2024</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>531194</v>
+      </c>
+      <c r="C177" s="7" t="n">
+        <v>369147</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="11" t="inlineStr">
+        <is>
+          <t>21/8/2024</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>530251</v>
+      </c>
+      <c r="C178" s="7" t="n">
+        <v>352774</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="11" t="inlineStr">
+        <is>
+          <t>22/8/2024</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>476835</v>
+      </c>
+      <c r="C179" s="7" t="n">
+        <v>328726</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="11" t="inlineStr">
+        <is>
+          <t>23/8/2024</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>523159</v>
+      </c>
+      <c r="C180" s="7" t="n">
+        <v>362506</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="11" t="inlineStr">
+        <is>
+          <t>24/8/2024</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>527133</v>
+      </c>
+      <c r="C181" s="7" t="n">
+        <v>364584</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="11" t="inlineStr">
+        <is>
+          <t>25/8/2024</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>515675</v>
+      </c>
+      <c r="C182" s="7" t="n">
+        <v>360233</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="11" t="inlineStr">
+        <is>
+          <t>26/8/2024</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>517094</v>
+      </c>
+      <c r="C183" s="7" t="n">
+        <v>358110</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="11" t="inlineStr">
+        <is>
+          <t>27/8/2024</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>520868</v>
+      </c>
+      <c r="C184" s="7" t="n">
+        <v>350485</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="11" t="inlineStr">
+        <is>
+          <t>28/8/2024</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>523008</v>
+      </c>
+      <c r="C185" s="7" t="n">
+        <v>360343</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="11" t="inlineStr">
+        <is>
+          <t>29/8/2024</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>522006</v>
+      </c>
+      <c r="C186" s="7" t="n">
+        <v>365854</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="11" t="inlineStr">
+        <is>
+          <t>30/8/2024</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>521713</v>
+      </c>
+      <c r="C187" s="7" t="n">
+        <v>355858</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="11" t="inlineStr">
+        <is>
+          <t>31/8/2024</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>519520</v>
+      </c>
+      <c r="C188" s="7" t="n">
+        <v>352090</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="11" t="inlineStr">
+        <is>
+          <t>1/9/2024</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>524457</v>
+      </c>
+      <c r="C189" s="7" t="n">
+        <v>355688</v>
+      </c>
+      <c r="D189" t="n">
+        <v>522867</v>
+      </c>
+      <c r="E189" t="n">
+        <v>358979</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Agosto</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="11" t="inlineStr">
+        <is>
+          <t>2/9/2024</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>527062</v>
+      </c>
+      <c r="C190" s="7" t="n">
+        <v>355868</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="11" t="inlineStr">
+        <is>
+          <t>3/9/2024</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>527171</v>
+      </c>
+      <c r="C191" s="7" t="n">
+        <v>363581</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="11" t="inlineStr">
+        <is>
+          <t>4/9/2024</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>529195</v>
+      </c>
+      <c r="C192" s="7" t="n">
+        <v>366267</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="11" t="inlineStr">
+        <is>
+          <t>5/9/2024</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>526669</v>
+      </c>
+      <c r="C193" s="7" t="n">
+        <v>357377</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="11" t="inlineStr">
+        <is>
+          <t>6/9/2024</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>524465</v>
+      </c>
+      <c r="C194" s="7" t="n">
+        <v>356768</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="11" t="inlineStr">
+        <is>
+          <t>7/9/2024</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>528546</v>
+      </c>
+      <c r="C195" s="7" t="n">
+        <v>357080</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="11" t="inlineStr">
+        <is>
+          <t>8/9/2024</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>526322</v>
+      </c>
+      <c r="C196" s="7" t="n">
+        <v>359542</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="11" t="inlineStr">
+        <is>
+          <t>9/9/2024</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>531308</v>
+      </c>
+      <c r="C197" s="7" t="n">
+        <v>358313</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="11" t="inlineStr">
+        <is>
+          <t>10/9/2024</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>528538</v>
+      </c>
+      <c r="C198" s="7" t="n">
+        <v>359857</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="11" t="inlineStr">
+        <is>
+          <t>11/9/2024</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>515592</v>
+      </c>
+      <c r="C199" s="7" t="n">
+        <v>365600</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="11" t="inlineStr">
+        <is>
+          <t>12/9/2024</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>518730</v>
+      </c>
+      <c r="C200" s="7" t="n">
+        <v>360446</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="11" t="inlineStr">
+        <is>
+          <t>13/9/2024</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>523499</v>
+      </c>
+      <c r="C201" s="7" t="n">
+        <v>382179</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="11" t="inlineStr">
+        <is>
+          <t>14/9/2024</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>526665</v>
+      </c>
+      <c r="C202" s="7" t="n">
+        <v>387502</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="11" t="inlineStr">
+        <is>
+          <t>15/9/2024</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>529669</v>
+      </c>
+      <c r="C203" s="7" t="n">
+        <v>387229</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="11" t="inlineStr">
+        <is>
+          <t>17/9/2024</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>537556</v>
+      </c>
+      <c r="C204" s="7" t="n">
+        <v>389749</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="11" t="inlineStr">
+        <is>
+          <t>18/9/2024</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>536757</v>
+      </c>
+      <c r="C205" s="7" t="n">
+        <v>389443</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="11" t="inlineStr">
+        <is>
+          <t>19/9/2024</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>534582</v>
+      </c>
+      <c r="C206" s="7" t="n">
+        <v>388761</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="11" t="inlineStr">
+        <is>
+          <t>20/9/2024</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>545921</v>
+      </c>
+      <c r="C207" s="7" t="n">
+        <v>381524</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="11" t="inlineStr">
+        <is>
+          <t>21/9/2024</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>542063</v>
+      </c>
+      <c r="C208" s="7" t="n">
+        <v>373443</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="11" t="inlineStr">
+        <is>
+          <t>22/9/2024</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>546015</v>
+      </c>
+      <c r="C209" s="7" t="n">
+        <v>376881</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="11" t="inlineStr">
+        <is>
+          <t>23/9/2024</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>548134</v>
+      </c>
+      <c r="C210" s="7" t="n">
+        <v>374981</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="11" t="inlineStr">
+        <is>
+          <t>24/9/2024</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>543372</v>
+      </c>
+      <c r="C211" s="7" t="n">
+        <v>376298</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="11" t="inlineStr">
+        <is>
+          <t>25/9/2024</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>543314</v>
+      </c>
+      <c r="C212" s="7" t="n">
+        <v>374537</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="11" t="inlineStr">
+        <is>
+          <t>26/9/2024</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>525880</v>
+      </c>
+      <c r="C213" s="7" t="n">
+        <v>370547</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="11" t="inlineStr">
+        <is>
+          <t>27/9/2024</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>521288</v>
+      </c>
+      <c r="C214" s="7" t="n">
+        <v>382888</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="11" t="inlineStr">
+        <is>
+          <t>28/9/2024</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>512224</v>
+      </c>
+      <c r="C215" s="7" t="n">
+        <v>397375</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="11" t="inlineStr">
+        <is>
+          <t>29/9/2024</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>522045</v>
+      </c>
+      <c r="C216" s="7" t="n">
+        <v>401058</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="11" t="inlineStr">
+        <is>
+          <t>30/9/2024</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>528138</v>
+      </c>
+      <c r="C217" s="7" t="n">
+        <v>398891</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="11" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>527256</v>
+      </c>
+      <c r="C218" s="7" t="n">
+        <v>381923</v>
+      </c>
+      <c r="D218" t="n">
+        <v>530179</v>
+      </c>
+      <c r="E218" t="n">
+        <v>374127</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Setiembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="11" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>526307</v>
+      </c>
+      <c r="C219" s="7" t="n">
+        <v>362022</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="11" t="inlineStr">
+        <is>
+          <t>3/10/2024</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>528740</v>
+      </c>
+      <c r="C220" s="7" t="n">
+        <v>364053</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="11" t="inlineStr">
+        <is>
+          <t>4/10/2024</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>523342</v>
+      </c>
+      <c r="C221" s="7" t="n">
+        <v>374371</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="11" t="inlineStr">
+        <is>
+          <t>5/10/2024</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>524421</v>
+      </c>
+      <c r="C222" s="7" t="n">
+        <v>367744</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="11" t="inlineStr">
+        <is>
+          <t>6/10/2024</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>520692</v>
+      </c>
+      <c r="C223" s="7" t="n">
+        <v>366650</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="11" t="inlineStr">
+        <is>
+          <t>7/10/2024</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>524387</v>
+      </c>
+      <c r="C224" s="7" t="n">
+        <v>364713</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="11" t="inlineStr">
+        <is>
+          <t>8/10/2024</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>529717</v>
+      </c>
+      <c r="C225" s="7" t="n">
+        <v>366160</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="11" t="inlineStr">
+        <is>
+          <t>9/10/2024</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>538453</v>
+      </c>
+      <c r="C226" s="7" t="n">
+        <v>393428</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="11" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>542655</v>
+      </c>
+      <c r="C227" s="7" t="n">
+        <v>401455</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="11" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>549581</v>
+      </c>
+      <c r="C228" s="7" t="n">
+        <v>410780</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="11" t="inlineStr">
+        <is>
+          <t>12/10/2024</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>549251</v>
+      </c>
+      <c r="C229" s="7" t="n">
+        <v>408960</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="11" t="inlineStr">
+        <is>
+          <t>13/10/2024</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>547581</v>
+      </c>
+      <c r="C230" s="7" t="n">
+        <v>411868</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="11" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>541792</v>
+      </c>
+      <c r="C231" s="7" t="n">
+        <v>418934</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="11" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>543291</v>
+      </c>
+      <c r="C232" s="7" t="n">
+        <v>414873</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="11" t="inlineStr">
+        <is>
+          <t>16/10/2024</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>531048</v>
+      </c>
+      <c r="C233" s="7" t="n">
+        <v>396914</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="11" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>531187</v>
+      </c>
+      <c r="C234" s="7" t="n">
+        <v>379933</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="11" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>535578</v>
+      </c>
+      <c r="C235" s="7" t="n">
+        <v>377254</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="11" t="inlineStr">
+        <is>
+          <t>19/10/2024</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>532902</v>
+      </c>
+      <c r="C236" s="7" t="n">
+        <v>373078</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="11" t="inlineStr">
+        <is>
+          <t>20/10/2024</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>531853</v>
+      </c>
+      <c r="C237" s="7" t="n">
+        <v>372501</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="11" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>535725</v>
+      </c>
+      <c r="C238" s="7" t="n">
+        <v>371668</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="11" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>532291</v>
+      </c>
+      <c r="C239" s="7" t="n">
+        <v>371389</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="11" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>528081</v>
+      </c>
+      <c r="C240" s="7" t="n">
+        <v>377468</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="11" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>536780</v>
+      </c>
+      <c r="C241" s="7" t="n">
+        <v>397290</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="11" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>538311</v>
+      </c>
+      <c r="C242" s="7" t="n">
+        <v>401212</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="11" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>540868</v>
+      </c>
+      <c r="C243" s="7" t="n">
+        <v>397866</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="11" t="inlineStr">
+        <is>
+          <t>27/10/2024</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>542421</v>
+      </c>
+      <c r="C244" s="7" t="n">
+        <v>404032</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="11" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>535819</v>
+      </c>
+      <c r="C245" s="7" t="n">
+        <v>397182</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="11" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>542242</v>
+      </c>
+      <c r="C246" s="7" t="n">
+        <v>389872</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="11" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>543514</v>
+      </c>
+      <c r="C247" s="7" t="n">
+        <v>383340</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="11" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>547013</v>
+      </c>
+      <c r="C248" s="7" t="n">
+        <v>378850</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="11" t="inlineStr">
+        <is>
+          <t>1/11/2024</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>547701</v>
+      </c>
+      <c r="C249" s="7" t="n">
+        <v>381534</v>
+      </c>
+      <c r="D249" t="n">
+        <v>535584</v>
+      </c>
+      <c r="E249" t="n">
+        <v>386380</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Octubre</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="11" t="inlineStr">
+        <is>
+          <t>2/11/2024</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>545362</v>
+      </c>
+      <c r="C250" s="7" t="n">
+        <v>378922</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="11" t="inlineStr">
+        <is>
+          <t>3/11/2024</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>545303</v>
+      </c>
+      <c r="C251" s="7" t="n">
+        <v>382270</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="11" t="inlineStr">
+        <is>
+          <t>4/11/2024</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>542097</v>
+      </c>
+      <c r="C252" s="7" t="n">
+        <v>384050</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="11" t="inlineStr">
+        <is>
+          <t>5/11/2024</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>534510</v>
+      </c>
+      <c r="C253" s="7" t="n">
+        <v>374736</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="11" t="inlineStr">
+        <is>
+          <t>6/11/2024</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>529587</v>
+      </c>
+      <c r="C254" s="7" t="n">
+        <v>393497</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="11" t="inlineStr">
+        <is>
+          <t>7/11/2024</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>523531</v>
+      </c>
+      <c r="C255" s="7" t="n">
+        <v>399029</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="11" t="inlineStr">
+        <is>
+          <t>8/11/2024</t>
+        </is>
+      </c>
+      <c r="B256" s="7" t="n">
+        <v>386349</v>
+      </c>
+      <c r="C256" s="7" t="n">
+        <v>224188</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="11" t="inlineStr">
+        <is>
+          <t>9/11/2024</t>
+        </is>
+      </c>
+      <c r="B257" s="7" t="n">
+        <v>356012</v>
+      </c>
+      <c r="C257" s="7" t="n">
+        <v>197973</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="11" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B258" s="7" t="n">
+        <v>359433</v>
+      </c>
+      <c r="C258" s="7" t="n">
+        <v>198167</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="11" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="B259" s="7" t="n">
+        <v>397697</v>
+      </c>
+      <c r="C259" s="7" t="n">
+        <v>195404</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="11" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="B260" s="7" t="n">
+        <v>384328</v>
+      </c>
+      <c r="C260" s="7" t="n">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="11" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="B261" s="7" t="n">
+        <v>375728</v>
+      </c>
+      <c r="C261" s="7" t="n">
+        <v>196070</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="11" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B262" s="7" t="n">
+        <v>388455</v>
+      </c>
+      <c r="C262" s="7" t="n">
+        <v>197650</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="11" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="B263" s="7" t="n">
+        <v>394188</v>
+      </c>
+      <c r="C263" s="7" t="n">
+        <v>197987</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="11" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="B264" s="7" t="n">
+        <v>371659</v>
+      </c>
+      <c r="C264" s="7" t="n">
+        <v>198562</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="11" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="B265" s="7" t="n">
+        <v>369735</v>
+      </c>
+      <c r="C265" s="7" t="n">
+        <v>199034</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="11" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="B266" s="7" t="n">
+        <v>381645</v>
+      </c>
+      <c r="C266" s="7" t="n">
+        <v>200032</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="11" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="B267" s="7" t="n">
+        <v>406758</v>
+      </c>
+      <c r="C267" s="7" t="n">
+        <v>204118</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="11" t="inlineStr">
+        <is>
+          <t>20/11/2024</t>
+        </is>
+      </c>
+      <c r="B268" s="7" t="n">
+        <v>416300</v>
+      </c>
+      <c r="C268" s="7" t="n">
+        <v>206195</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="11" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="B269" s="7" t="n">
+        <v>410139</v>
+      </c>
+      <c r="C269" s="7" t="n">
+        <v>200372</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="11" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="B270" s="7" t="n">
+        <v>390484</v>
+      </c>
+      <c r="C270" s="7" t="n">
+        <v>204720</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="11" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="B271" s="7" t="n">
+        <v>391165</v>
+      </c>
+      <c r="C271" s="7" t="n">
+        <v>203967</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="11" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="B272" s="7" t="n">
+        <v>393539</v>
+      </c>
+      <c r="C272" s="7" t="n">
+        <v>202219</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="11" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="B273" s="7" t="n">
+        <v>401909</v>
+      </c>
+      <c r="C273" s="7" t="n">
+        <v>200425</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="11" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="B274" s="7" t="n">
+        <v>392998</v>
+      </c>
+      <c r="C274" s="7" t="n">
+        <v>205309</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="11" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="B275" s="7" t="n">
+        <v>396289</v>
+      </c>
+      <c r="C275" s="7" t="n">
+        <v>202778</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="11" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>412504</v>
+      </c>
+      <c r="C276" t="n">
+        <v>208211</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="11" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>403136</v>
+      </c>
+      <c r="C277" t="n">
+        <v>206427</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="11" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>412468</v>
+      </c>
+      <c r="C278" t="n">
+        <v>210120</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="11" t="inlineStr">
+        <is>
+          <t>2/12/2024</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>401513</v>
+      </c>
+      <c r="C279" t="n">
+        <v>207815</v>
+      </c>
+      <c r="D279" t="n">
+        <v>425366</v>
+      </c>
+      <c r="E279" t="n">
+        <v>244995</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Noviembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="11" t="inlineStr">
+        <is>
+          <t>3/12/2024</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>391380</v>
+      </c>
+      <c r="C280" t="n">
+        <v>200006</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="11" t="inlineStr">
+        <is>
+          <t>4/12/2024</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>400860</v>
+      </c>
+      <c r="C281" t="n">
+        <v>208313</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="11" t="inlineStr">
+        <is>
+          <t>5/12/2024</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>400648</v>
+      </c>
+      <c r="C282" t="n">
+        <v>209306</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="11" t="inlineStr">
+        <is>
+          <t>6/12/2024</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>399302</v>
+      </c>
+      <c r="C283" t="n">
+        <v>213035</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="11" t="inlineStr">
+        <is>
+          <t>7/12/2024</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>401148</v>
+      </c>
+      <c r="C284" t="n">
+        <v>207679</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="11" t="inlineStr">
+        <is>
+          <t>8/12/2024</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>400015</v>
+      </c>
+      <c r="C285" t="n">
+        <v>212182</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="11" t="inlineStr">
+        <is>
+          <t>9/12/2024</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>402530</v>
+      </c>
+      <c r="C286" t="n">
+        <v>215013</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="11" t="inlineStr">
+        <is>
+          <t>10/12/2024</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>397222</v>
+      </c>
+      <c r="C287" t="n">
+        <v>215281</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="11" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>401023</v>
+      </c>
+      <c r="C288" t="n">
+        <v>242163</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="11" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>395847</v>
+      </c>
+      <c r="C289" t="n">
+        <v>229678</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="11" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>394555</v>
+      </c>
+      <c r="C290" t="n">
+        <v>224524</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="11" t="inlineStr">
+        <is>
+          <t>14/12/2024</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>391544</v>
+      </c>
+      <c r="C291" t="n">
+        <v>219381</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="11" t="inlineStr">
+        <is>
+          <t>15/12/2024</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>391206</v>
+      </c>
+      <c r="C292" t="n">
+        <v>216706</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="11" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>400335</v>
+      </c>
+      <c r="C293" t="n">
+        <v>214190</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="11" t="inlineStr">
+        <is>
+          <t>17/12/2024</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>395793</v>
+      </c>
+      <c r="C294" t="n">
+        <v>213207</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="11" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>392978</v>
+      </c>
+      <c r="C295" t="n">
+        <v>211719</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="11" t="inlineStr">
+        <is>
+          <t>19/12/2024</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>384961</v>
+      </c>
+      <c r="C296" t="n">
+        <v>212860</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="11" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>389749</v>
+      </c>
+      <c r="C297" t="n">
+        <v>217785</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="11" t="inlineStr">
+        <is>
+          <t>21/12/2024</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>398563</v>
+      </c>
+      <c r="C298" t="n">
+        <v>228748</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="11" t="inlineStr">
+        <is>
+          <t>22/12/2024</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>384995</v>
+      </c>
+      <c r="C299" t="n">
+        <v>223064</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="11" t="inlineStr">
+        <is>
+          <t>23/12/2024</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>387856</v>
+      </c>
+      <c r="C300" t="n">
+        <v>221238</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="11" t="inlineStr">
+        <is>
+          <t>24/12/2024</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>394285</v>
+      </c>
+      <c r="C301" t="n">
+        <v>225124</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="11" t="inlineStr">
+        <is>
+          <t>25/12/2024</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>393084</v>
+      </c>
+      <c r="C302" t="n">
+        <v>229847</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="11" t="inlineStr">
+        <is>
+          <t>26/12/2024</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>393179</v>
+      </c>
+      <c r="C303" t="n">
+        <v>218325</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="11" t="inlineStr">
+        <is>
+          <t>27/12/2024</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>386673</v>
+      </c>
+      <c r="C304" t="n">
+        <v>215761</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="11" t="inlineStr">
+        <is>
+          <t>28/12/2024</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>389412</v>
+      </c>
+      <c r="C305" t="n">
+        <v>216400</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="11" t="inlineStr">
+        <is>
+          <t>29/12/2024</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>385159</v>
+      </c>
+      <c r="C306" t="n">
+        <v>230801</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="11" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>392732</v>
+      </c>
+      <c r="C307" t="n">
+        <v>233127</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="11" t="inlineStr">
+        <is>
+          <t>31/0/2025</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>390217</v>
+      </c>
+      <c r="C308" t="n">
+        <v>228438</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="11" t="inlineStr">
+        <is>
+          <t>2/1/2025</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>397960</v>
+      </c>
+      <c r="C309" t="n">
+        <v>228034</v>
+      </c>
+      <c r="D309" t="n">
+        <v>394292</v>
+      </c>
+      <c r="E309" t="n">
+        <v>288723</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="11" t="inlineStr">
+        <is>
+          <t>3/1/2025</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>392573</v>
+      </c>
+      <c r="C310" t="n">
+        <v>223152</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="11" t="inlineStr">
+        <is>
+          <t>4/1/2025</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>391255</v>
+      </c>
+      <c r="C311" t="n">
+        <v>217123</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="11" t="inlineStr">
+        <is>
+          <t>5/1/2025</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>397812</v>
+      </c>
+      <c r="C312" t="n">
+        <v>219534</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="11" t="inlineStr">
+        <is>
+          <t>6/1/2025</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>387999</v>
+      </c>
+      <c r="C313" t="n">
+        <v>216049</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="11" t="inlineStr">
+        <is>
+          <t>7/1/2025</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>396412</v>
+      </c>
+      <c r="C314" t="n">
+        <v>216358</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="11" t="inlineStr">
+        <is>
+          <t>8/1/2025</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>392673</v>
+      </c>
+      <c r="C315" t="n">
+        <v>217802</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="11" t="inlineStr">
+        <is>
+          <t>9/1/2025</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>390195</v>
+      </c>
+      <c r="C316" t="n">
+        <v>214437</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="11" t="inlineStr">
+        <is>
+          <t>10/1/2025</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>393024</v>
+      </c>
+      <c r="C317" t="n">
+        <v>222242</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="11" t="inlineStr">
+        <is>
+          <t>11/1/2025</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>388189</v>
+      </c>
+      <c r="C318" t="n">
+        <v>233081</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="11" t="inlineStr">
+        <is>
+          <t>12/1/2025</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>393184</v>
+      </c>
+      <c r="C319" t="n">
+        <v>237854</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="11" t="inlineStr">
+        <is>
+          <t>13/1/2025</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>405232</v>
+      </c>
+      <c r="C320" t="n">
+        <v>228533</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="11" t="inlineStr">
+        <is>
+          <t>14/1/2025</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>402204</v>
+      </c>
+      <c r="C321" t="n">
+        <v>240455</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="11" t="inlineStr">
+        <is>
+          <t>15/1/2025</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>375567</v>
+      </c>
+      <c r="C322" t="n">
+        <v>244314</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="11" t="inlineStr">
+        <is>
+          <t>16/1/2025</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>347107</v>
+      </c>
+      <c r="C323" t="n">
+        <v>248840</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="11" t="inlineStr">
+        <is>
+          <t>17/1/2025</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>333280</v>
+      </c>
+      <c r="C324" t="n">
+        <v>248924</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="11" t="inlineStr">
+        <is>
+          <t>18/1/2025</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>320675</v>
+      </c>
+      <c r="C325" t="n">
+        <v>253034</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="11" t="inlineStr">
+        <is>
+          <t>19/1/2025</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>319337</v>
+      </c>
+      <c r="C326" t="n">
+        <v>242510</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="11" t="inlineStr">
+        <is>
+          <t>20/1/2025</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>312444</v>
+      </c>
+      <c r="C327" t="n">
+        <v>251485</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="11" t="inlineStr">
+        <is>
+          <t>21/1/2025</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>311792</v>
+      </c>
+      <c r="C328" t="n">
+        <v>250877</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="11" t="inlineStr">
+        <is>
+          <t>22/1/2025</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>307571</v>
+      </c>
+      <c r="C329" t="n">
+        <v>250811</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="11" t="inlineStr">
+        <is>
+          <t>23/1/2025</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>317150</v>
+      </c>
+      <c r="C330" t="n">
+        <v>251696</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="11" t="inlineStr">
+        <is>
+          <t>24/1/2025</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>315124</v>
+      </c>
+      <c r="C331" t="n">
+        <v>250152</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="11" t="inlineStr">
+        <is>
+          <t>25/1/2025</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>309305</v>
+      </c>
+      <c r="C332" t="n">
+        <v>247361</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="11" t="inlineStr">
+        <is>
+          <t>26/1/2025</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>306491</v>
+      </c>
+      <c r="C333" t="n">
+        <v>245067</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="11" t="inlineStr">
+        <is>
+          <t>27/1/2025</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>315680</v>
+      </c>
+      <c r="C334" t="n">
+        <v>275559</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="11" t="inlineStr">
+        <is>
+          <t>28/1/2025</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>322011</v>
+      </c>
+      <c r="C335" t="n">
+        <v>278757</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="11" t="inlineStr">
+        <is>
+          <t>29/1/2025</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>323626</v>
+      </c>
+      <c r="C336" t="n">
+        <v>285882</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="11" t="inlineStr">
+        <is>
+          <t>30/1/2025</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>322969</v>
+      </c>
+      <c r="C337" t="n">
+        <v>287156</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="11" t="inlineStr">
+        <is>
+          <t>31/1/2025</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>318373</v>
+      </c>
+      <c r="C338" t="n">
+        <v>288527</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="11" t="inlineStr">
+        <is>
+          <t>1/2/2025</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>327864</v>
+      </c>
+      <c r="C339" t="n">
+        <v>285250</v>
+      </c>
+      <c r="D339" t="n">
+        <v>353573</v>
+      </c>
+      <c r="E339" t="n">
+        <v>243853</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Enero</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="11" t="inlineStr">
+        <is>
+          <t>2/2/2025</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>324389</v>
+      </c>
+      <c r="C340" t="n">
+        <v>288280</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="11" t="inlineStr">
+        <is>
+          <t>3/2/2025</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>315439</v>
+      </c>
+      <c r="C341" t="n">
+        <v>291298</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="11" t="inlineStr">
+        <is>
+          <t>4/2/2025</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>331579</v>
+      </c>
+      <c r="C342" t="n">
+        <v>288119</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="11" t="inlineStr">
+        <is>
+          <t>5/2/2025</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>323119</v>
+      </c>
+      <c r="C343" t="n">
+        <v>290524</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="11" t="inlineStr">
+        <is>
+          <t>6/2/2025</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>326370</v>
+      </c>
+      <c r="C344" t="n">
+        <v>291584</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="11" t="inlineStr">
+        <is>
+          <t>7/2/2025</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>336701</v>
+      </c>
+      <c r="C345" t="n">
+        <v>288205</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="11" t="inlineStr">
+        <is>
+          <t>8/2/2025</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>328097</v>
+      </c>
+      <c r="C346" t="n">
+        <v>288708</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="11" t="inlineStr">
+        <is>
+          <t>9/2/2025</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>332996</v>
+      </c>
+      <c r="C347" t="n">
+        <v>295159</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="11" t="inlineStr">
+        <is>
+          <t>10/2/2025</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>339532</v>
+      </c>
+      <c r="C348" t="n">
+        <v>293875</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="11" t="inlineStr">
+        <is>
+          <t>11/2/2025</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>391425</v>
+      </c>
+      <c r="C349" t="n">
+        <v>258159</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="11" t="inlineStr">
+        <is>
+          <t>12/2/2025</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>383106</v>
+      </c>
+      <c r="C350" t="n">
+        <v>253533</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="11" t="inlineStr">
+        <is>
+          <t>13/2/2025</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>395515</v>
+      </c>
+      <c r="C351" t="n">
+        <v>253517</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="11" t="inlineStr">
+        <is>
+          <t>14/2/2025</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>390916</v>
+      </c>
+      <c r="C352" t="n">
+        <v>254778</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="11" t="inlineStr">
+        <is>
+          <t>15/2/2025</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>405526</v>
+      </c>
+      <c r="C353" t="n">
+        <v>252933</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="11" t="inlineStr">
+        <is>
+          <t>16/2/2025</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>371233</v>
+      </c>
+      <c r="C354" t="n">
+        <v>251568</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="11" t="inlineStr">
+        <is>
+          <t>17/2/2025</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>381353</v>
+      </c>
+      <c r="C355" t="n">
+        <v>291176</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="11" t="inlineStr">
+        <is>
+          <t>18/2/2025</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>387442</v>
+      </c>
+      <c r="C356" t="n">
+        <v>298765</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="11" t="inlineStr">
+        <is>
+          <t>19/2/2025</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>391334</v>
+      </c>
+      <c r="C357" t="n">
+        <v>301960</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="11" t="inlineStr">
+        <is>
+          <t>20/2/2025</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>390439</v>
+      </c>
+      <c r="C358" t="n">
+        <v>301273</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="11" t="inlineStr">
+        <is>
+          <t>21/2/2025</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>394468</v>
+      </c>
+      <c r="C359" t="n">
+        <v>310446</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="11" t="inlineStr">
+        <is>
+          <t>22/2/2025</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>399690</v>
+      </c>
+      <c r="C360" t="n">
+        <v>308574</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="11" t="inlineStr">
+        <is>
+          <t>23/2/2025</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>396832</v>
+      </c>
+      <c r="C361" t="n">
+        <v>307772</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="11" t="inlineStr">
+        <is>
+          <t>24/2/2025</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>395567</v>
+      </c>
+      <c r="C362" t="n">
+        <v>304859</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="11" t="inlineStr">
+        <is>
+          <t>25/2/2025</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>398982</v>
+      </c>
+      <c r="C363" t="n">
+        <v>307032</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="11" t="inlineStr">
+        <is>
+          <t>26/2/2025</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>398878</v>
+      </c>
+      <c r="C364" t="n">
+        <v>302887</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="11" t="inlineStr">
+        <is>
+          <t>27/2/2025</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>400534</v>
+      </c>
+      <c r="C365" t="n">
+        <v>314797</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="11" t="inlineStr">
+        <is>
+          <t>28/2/2025</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>404930</v>
+      </c>
+      <c r="C366" t="n">
+        <v>317977</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="11" t="inlineStr">
+        <is>
+          <t>1/3/2025</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>406318</v>
+      </c>
+      <c r="C367" t="n">
+        <v>320317</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2/3/2025</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>388041</v>
+      </c>
+      <c r="C368" t="n">
+        <v>321376</v>
       </c>
     </row>
   </sheetData>
